--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
@@ -670,10 +670,10 @@
         <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -682,7 +682,7 @@
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -712,13 +712,13 @@
         <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -1615,7 +1615,7 @@
         <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
         <v>7.6</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.47</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.15</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.28</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
         <v>4.6</v>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF13" t="n">
         <v>16</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
         <v>1.47</v>
@@ -2590,25 +2590,25 @@
         <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.15</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G22" t="n">
-        <v>980</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>1.41</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>2.58</v>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I23" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3535,7 +3535,7 @@
         <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
         <v>3.75</v>
@@ -3646,13 +3646,13 @@
         <v>2.44</v>
       </c>
       <c r="I24" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I26" t="n">
         <v>2.28</v>
@@ -3937,7 +3937,7 @@
         <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q26" t="n">
         <v>2.5</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G29" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>1.45</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>2.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="n">
         <v>2.8</v>
       </c>
       <c r="I30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.9</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q32" t="n">
         <v>1.75</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -4867,7 +4867,7 @@
         <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4990,13 +4990,13 @@
         <v>1.55</v>
       </c>
       <c r="G34" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>6.2</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J34" t="n">
         <v>4.5</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q34" t="n">
         <v>1.56</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="G36" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="H36" t="n">
-        <v>2.14</v>
+        <v>4.8</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>2.06</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H37" t="n">
-        <v>2.52</v>
+        <v>6.8</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>2.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R39" t="n">
         <v>1.6</v>
@@ -5731,13 +5731,13 @@
         <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
         <v>12.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="H40" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.98</v>
+        <v>3.25</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="I41" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.92</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -6091,10 +6091,10 @@
         <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P42" t="n">
         <v>1.59</v>
@@ -6130,7 +6130,7 @@
         <v>24</v>
       </c>
       <c r="AA42" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="n">
         <v>7.8</v>
@@ -6163,13 +6163,13 @@
         <v>36</v>
       </c>
       <c r="AL42" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
         <v>200</v>
       </c>
       <c r="AN42" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO42" t="n">
         <v>80</v>
@@ -6226,7 +6226,7 @@
         <v>1.13</v>
       </c>
       <c r="N43" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O43" t="n">
         <v>1.55</v>
@@ -6289,7 +6289,7 @@
         <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
         <v>75</v>
@@ -6361,7 +6361,7 @@
         <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.45</v>
@@ -6370,7 +6370,7 @@
         <v>1.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
@@ -6379,7 +6379,7 @@
         <v>4.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U44" t="n">
         <v>1.97</v>
@@ -6409,7 +6409,7 @@
         <v>7.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
         <v>38</v>
@@ -6418,7 +6418,7 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH44" t="n">
         <v>24</v>
@@ -6439,10 +6439,10 @@
         <v>160</v>
       </c>
       <c r="AN44" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -6610,10 +6610,10 @@
         <v>3.1</v>
       </c>
       <c r="G46" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I46" t="n">
         <v>2.82</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G48" t="n">
         <v>1.92</v>
@@ -6937,7 +6937,7 @@
         <v>18.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="n">
         <v>110</v>
@@ -6982,7 +6982,7 @@
         <v>10.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -7045,7 +7045,7 @@
         <v>2.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.28</v>
+        <v>2.04</v>
       </c>
       <c r="G51" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="H51" t="n">
         <v>3.2</v>
@@ -7294,10 +7294,10 @@
         <v>4.9</v>
       </c>
       <c r="J51" t="n">
-        <v>1.25</v>
+        <v>2.88</v>
       </c>
       <c r="K51" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>1.74</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7558,7 +7558,7 @@
         <v>2.46</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
         <v>3.7</v>
@@ -7585,7 +7585,7 @@
         <v>1.76</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="n">
         <v>15.5</v>
@@ -7618,7 +7618,7 @@
         <v>75</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC53" t="n">
         <v>9.199999999999999</v>
@@ -7630,7 +7630,7 @@
         <v>48</v>
       </c>
       <c r="AF53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG53" t="n">
         <v>13</v>
@@ -7642,10 +7642,10 @@
         <v>60</v>
       </c>
       <c r="AJ53" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK53" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL53" t="n">
         <v>44</v>
@@ -7654,7 +7654,7 @@
         <v>110</v>
       </c>
       <c r="AN53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO53" t="n">
         <v>46</v>
@@ -7846,16 +7846,16 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="O55" t="n">
         <v>1.28</v>
       </c>
       <c r="P55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q55" t="n">
         <v>1.78</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.77</v>
       </c>
       <c r="R55" t="n">
         <v>1.29</v>
@@ -7963,7 +7963,7 @@
         <v>4.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I56" t="n">
         <v>1.91</v>
@@ -8095,19 +8095,19 @@
         <v>2.22</v>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="H57" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G58" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="I58" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="J58" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="Q58" t="n">
         <v>2.08</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G59" t="n">
         <v>2.52</v>
@@ -8371,13 +8371,13 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J59" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G60" t="n">
         <v>2.74</v>
       </c>
       <c r="H60" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K60" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G62" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="H62" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K62" t="n">
         <v>3.75</v>
@@ -8932,13 +8932,13 @@
         <v>1.27</v>
       </c>
       <c r="P63" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R63" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S63" t="n">
         <v>3</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y63" t="n">
         <v>7.8</v>
@@ -8968,7 +8968,7 @@
         <v>11</v>
       </c>
       <c r="AB63" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AC63" t="n">
         <v>12.5</v>
@@ -9007,7 +9007,7 @@
         <v>400</v>
       </c>
       <c r="AO63" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="64">
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>2.06</v>
@@ -9598,19 +9598,19 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P68" t="n">
         <v>1.68</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R68" t="n">
         <v>1.25</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y68" t="n">
         <v>14.5</v>
@@ -9640,7 +9640,7 @@
         <v>44</v>
       </c>
       <c r="AA68" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB68" t="n">
         <v>8.800000000000001</v>
@@ -9649,10 +9649,10 @@
         <v>7.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE68" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF68" t="n">
         <v>13</v>
@@ -9661,10 +9661,10 @@
         <v>11</v>
       </c>
       <c r="AH68" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI68" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ68" t="n">
         <v>29</v>
@@ -9673,10 +9673,10 @@
         <v>25</v>
       </c>
       <c r="AL68" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM68" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN68" t="n">
         <v>20</v>
@@ -9715,7 +9715,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H69" t="n">
         <v>2.82</v>
@@ -9724,7 +9724,7 @@
         <v>2.86</v>
       </c>
       <c r="J69" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K69" t="n">
         <v>3.25</v>
@@ -9745,7 +9745,7 @@
         <v>1.74</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R69" t="n">
         <v>1.27</v>
@@ -9754,7 +9754,7 @@
         <v>4.3</v>
       </c>
       <c r="T69" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U69" t="n">
         <v>2.04</v>
@@ -9796,7 +9796,7 @@
         <v>13.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI69" t="n">
         <v>55</v>
@@ -9982,40 +9982,40 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="G71" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="H71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
         <v>2.22</v>
       </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K71" t="n">
-        <v>740</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>2.02</v>
-      </c>
       <c r="Q71" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>3.45</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>1.28</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.98</v>
+        <v>1.32</v>
       </c>
       <c r="R72" t="n">
         <v>1.28</v>
@@ -10171,13 +10171,13 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y72" t="n">
         <v>17.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA72" t="n">
         <v>90</v>
@@ -10186,10 +10186,10 @@
         <v>11</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD72" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE72" t="n">
         <v>1000</v>
@@ -10261,13 +10261,13 @@
         <v>4.9</v>
       </c>
       <c r="I73" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J73" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K73" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>1.02</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>6.6</v>
       </c>
       <c r="I78" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J78" t="n">
         <v>5.1</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="G80" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="H80" t="n">
-        <v>2.46</v>
+        <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J80" t="n">
-        <v>2.36</v>
+        <v>4.4</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.09</v>
+        <v>2.64</v>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J81" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K81" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11605,10 +11605,10 @@
         <v>2.52</v>
       </c>
       <c r="G83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H83" t="n">
         <v>2.72</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.7</v>
       </c>
       <c r="I83" t="n">
         <v>3.05</v>
@@ -11617,7 +11617,7 @@
         <v>3.7</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11740,13 +11740,13 @@
         <v>3.35</v>
       </c>
       <c r="G84" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I84" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J84" t="n">
         <v>3.35</v>
@@ -12010,7 +12010,7 @@
         <v>2.84</v>
       </c>
       <c r="G86" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H86" t="n">
         <v>2.74</v>
@@ -12019,7 +12019,7 @@
         <v>2.78</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K86" t="n">
         <v>3.5</v>
@@ -12031,7 +12031,7 @@
         <v>1.08</v>
       </c>
       <c r="N86" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O86" t="n">
         <v>1.36</v>
@@ -12049,7 +12049,7 @@
         <v>3.85</v>
       </c>
       <c r="T86" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U86" t="n">
         <v>2.16</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q87" t="n">
         <v>1.92</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G90" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H90" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="I90" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J90" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K90" t="n">
         <v>4.1</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.15</v>
+        <v>2.16</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12817,46 +12817,46 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G92" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K92" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N92" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O92" t="n">
         <v>1.35</v>
       </c>
       <c r="P92" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="R92" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S92" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T92" t="n">
         <v>1.74</v>
@@ -12865,7 +12865,7 @@
         <v>1.8</v>
       </c>
       <c r="V92" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W92" t="n">
         <v>1.76</v>
@@ -12880,7 +12880,7 @@
         <v>29</v>
       </c>
       <c r="AA92" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB92" t="n">
         <v>9.6</v>
@@ -12892,7 +12892,7 @@
         <v>17.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF92" t="n">
         <v>13</v>
@@ -12922,7 +12922,7 @@
         <v>23</v>
       </c>
       <c r="AO92" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q95" t="n">
         <v>1.86</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="H96" t="n">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="I96" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J96" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K96" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="H97" t="n">
         <v>2.26</v>
       </c>
       <c r="I97" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="J97" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="K97" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13900,7 +13900,7 @@
         <v>1.64</v>
       </c>
       <c r="G100" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H100" t="n">
         <v>5.6</v>
@@ -13921,13 +13921,13 @@
         <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O100" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P100" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q100" t="n">
         <v>1.75</v>
@@ -13939,7 +13939,7 @@
         <v>2.92</v>
       </c>
       <c r="T100" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U100" t="n">
         <v>2.14</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y100" t="n">
         <v>23</v>
@@ -13960,10 +13960,10 @@
         <v>50</v>
       </c>
       <c r="AA100" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB100" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC100" t="n">
         <v>10.5</v>
@@ -13972,7 +13972,7 @@
         <v>23</v>
       </c>
       <c r="AE100" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF100" t="n">
         <v>11</v>
@@ -13984,7 +13984,7 @@
         <v>21</v>
       </c>
       <c r="AI100" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ100" t="n">
         <v>16.5</v>
@@ -13999,7 +13999,7 @@
         <v>110</v>
       </c>
       <c r="AN100" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO100" t="n">
         <v>1000</v>
@@ -14110,7 +14110,7 @@
         <v>65</v>
       </c>
       <c r="AF101" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG101" t="n">
         <v>13</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G103" t="n">
         <v>1.94</v>
@@ -14311,7 +14311,7 @@
         <v>4.3</v>
       </c>
       <c r="I103" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J103" t="n">
         <v>3.7</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G106" t="n">
         <v>3.25</v>
@@ -14752,7 +14752,7 @@
         <v>1.84</v>
       </c>
       <c r="U106" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -14788,7 +14788,7 @@
         <v>22</v>
       </c>
       <c r="AG106" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH106" t="n">
         <v>18.5</v>
@@ -14848,16 +14848,16 @@
         <v>1.34</v>
       </c>
       <c r="H107" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I107" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J107" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K107" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14866,10 +14866,10 @@
         <v>1.04</v>
       </c>
       <c r="N107" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O107" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P107" t="n">
         <v>2.22</v>
@@ -14887,7 +14887,7 @@
         <v>2.14</v>
       </c>
       <c r="U107" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V107" t="n">
         <v>0</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
         <v>2.52</v>
@@ -14986,13 +14986,13 @@
         <v>3.15</v>
       </c>
       <c r="I108" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J108" t="n">
         <v>3.1</v>
       </c>
       <c r="K108" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -15112,13 +15112,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G109" t="n">
         <v>2.4</v>
       </c>
       <c r="H109" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I109" t="n">
         <v>5.5</v>
@@ -15127,7 +15127,7 @@
         <v>2.48</v>
       </c>
       <c r="K109" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15388,7 +15388,7 @@
         <v>1.7</v>
       </c>
       <c r="H111" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I111" t="n">
         <v>8.4</v>
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G112" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="H112" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J112" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="K112" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -15655,19 +15655,19 @@
         <v>1.91</v>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H113" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I113" t="n">
         <v>4.4</v>
       </c>
       <c r="J113" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K113" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -15685,7 +15685,7 @@
         <v>2.16</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -16057,22 +16057,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.82</v>
+        <v>1.64</v>
       </c>
       <c r="G116" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H116" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="I116" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="J116" t="n">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="K116" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q116" t="n">
         <v>1.92</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
@@ -673,7 +673,7 @@
         <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>14.5</v>
@@ -769,10 +769,10 @@
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
-        <v>1.34</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="J3" t="n">
-        <v>1.31</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>1.23</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K9" t="n">
         <v>6.2</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>1.86</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.55</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
@@ -2185,7 +2185,7 @@
         <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
@@ -2209,7 +2209,7 @@
         <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
         <v>2.98</v>
@@ -2578,7 +2578,7 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
         <v>2.78</v>
@@ -2587,28 +2587,28 @@
         <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>1.27</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.97</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
         <v>1.17</v>
       </c>
       <c r="H19" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>2.16</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
@@ -3379,7 +3379,7 @@
         <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>2.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I23" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
@@ -3535,7 +3535,7 @@
         <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>1.43</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="I24" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>21</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.82</v>
+        <v>1.09</v>
       </c>
       <c r="G25" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>2.06</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>3.9</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
@@ -3937,7 +3937,7 @@
         <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
         <v>2.5</v>
@@ -3952,7 +3952,7 @@
         <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3964,55 +3964,55 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
         <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K28" t="n">
         <v>710</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>2.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4450,19 +4450,19 @@
         <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K31" t="n">
         <v>740</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4726,10 +4726,10 @@
         <v>1.32</v>
       </c>
       <c r="I32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J32" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="K32" t="n">
         <v>4.2</v>
@@ -4885,7 +4885,7 @@
         <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>2.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G36" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H36" t="n">
         <v>4.8</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="G37" t="n">
-        <v>1.66</v>
+        <v>980</v>
       </c>
       <c r="H37" t="n">
-        <v>6.8</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5530,16 +5530,16 @@
         <v>1.01</v>
       </c>
       <c r="G38" t="n">
-        <v>1000</v>
+        <v>1.23</v>
       </c>
       <c r="H38" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="I38" t="n">
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="K38" t="n">
         <v>1000</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="G39" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="H39" t="n">
         <v>1.42</v>
@@ -5674,7 +5674,7 @@
         <v>1.45</v>
       </c>
       <c r="J39" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="K39" t="n">
         <v>5.5</v>
@@ -5686,28 +5686,28 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.4</v>
+        <v>1.25</v>
       </c>
       <c r="O39" t="n">
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="S39" t="n">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5719,22 +5719,22 @@
         <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
         <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
@@ -5743,7 +5743,7 @@
         <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5755,19 +5755,19 @@
         <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5806,13 +5806,13 @@
         <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J40" t="n">
         <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K41" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6070,13 +6070,13 @@
         <v>2.48</v>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H42" t="n">
         <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J42" t="n">
         <v>3.05</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y42" t="n">
         <v>10.5</v>
@@ -6211,7 +6211,7 @@
         <v>2.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J43" t="n">
         <v>3.05</v>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H44" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I44" t="n">
         <v>2.46</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>3.3</v>
@@ -6379,7 +6379,7 @@
         <v>4.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U44" t="n">
         <v>1.97</v>
@@ -6613,7 +6613,7 @@
         <v>3.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I46" t="n">
         <v>2.82</v>
@@ -6622,7 +6622,7 @@
         <v>2.94</v>
       </c>
       <c r="K46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6889,10 +6889,10 @@
         <v>4.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>1.79</v>
       </c>
       <c r="R48" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S48" t="n">
         <v>3</v>
@@ -6946,7 +6946,7 @@
         <v>10.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD48" t="n">
         <v>18</v>
@@ -6979,10 +6979,10 @@
         <v>100</v>
       </c>
       <c r="AN48" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G49" t="n">
         <v>1.75</v>
@@ -7021,7 +7021,7 @@
         <v>5.1</v>
       </c>
       <c r="I49" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J49" t="n">
         <v>4</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G51" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H51" t="n">
         <v>3.2</v>
@@ -7294,7 +7294,7 @@
         <v>4.9</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K51" t="n">
         <v>4.8</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="Q51" t="n">
         <v>1.99</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G52" t="n">
         <v>1.45</v>
       </c>
       <c r="H52" t="n">
-        <v>3.35</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I52" t="n">
         <v>1000</v>
@@ -7432,7 +7432,7 @@
         <v>4.6</v>
       </c>
       <c r="K52" t="n">
-        <v>710</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7555,10 +7555,10 @@
         <v>2.22</v>
       </c>
       <c r="G53" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I53" t="n">
         <v>3.7</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.08</v>
+        <v>2.6</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>3.05</v>
       </c>
       <c r="K55" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7846,7 +7846,7 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O55" t="n">
         <v>1.28</v>
@@ -7858,7 +7858,7 @@
         <v>1.78</v>
       </c>
       <c r="R55" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="S55" t="n">
         <v>2.88</v>
@@ -7867,7 +7867,7 @@
         <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V55" t="n">
         <v>1.61</v>
@@ -7966,13 +7966,13 @@
         <v>1.89</v>
       </c>
       <c r="I56" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K56" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7996,7 +7996,7 @@
         <v>1.3</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
         <v>2</v>
@@ -8005,13 +8005,13 @@
         <v>1.93</v>
       </c>
       <c r="V56" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="W56" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y56" t="n">
         <v>7.8</v>
@@ -8020,10 +8020,10 @@
         <v>11</v>
       </c>
       <c r="AA56" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
         <v>8.199999999999999</v>
@@ -8032,37 +8032,37 @@
         <v>10.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.22</v>
+        <v>1.07</v>
       </c>
       <c r="G57" t="n">
-        <v>2.46</v>
+        <v>980</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>1.07</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K57" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="H58" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I58" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K58" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.76</v>
+        <v>1.08</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>1.59</v>
       </c>
       <c r="K59" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="G60" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="H60" t="n">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="I60" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K60" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8776,13 +8776,13 @@
         <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J62" t="n">
         <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8914,7 +8914,7 @@
         <v>1.38</v>
       </c>
       <c r="J63" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K63" t="n">
         <v>5.8</v>
@@ -8947,7 +8947,7 @@
         <v>2.2</v>
       </c>
       <c r="U63" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H65" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I65" t="n">
         <v>3.8</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K65" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>1.76</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H66" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J66" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>740</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G67" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="I67" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K67" t="n">
-        <v>5.9</v>
+        <v>710</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G68" t="n">
         <v>2.06</v>
       </c>
       <c r="H68" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I68" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
         <v>3.2</v>
@@ -9634,10 +9634,10 @@
         <v>10.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z68" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA68" t="n">
         <v>150</v>
@@ -9649,10 +9649,10 @@
         <v>7.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE68" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="n">
         <v>13</v>
@@ -9673,16 +9673,16 @@
         <v>25</v>
       </c>
       <c r="AL68" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM68" t="n">
         <v>180</v>
       </c>
       <c r="AN68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G69" t="n">
         <v>3.05</v>
@@ -9721,13 +9721,13 @@
         <v>2.82</v>
       </c>
       <c r="I69" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J69" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>1.74</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R69" t="n">
         <v>1.27</v>
@@ -9772,7 +9772,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z69" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="n">
         <v>46</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="G71" t="n">
-        <v>1.77</v>
+        <v>1000</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="I71" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="K71" t="n">
-        <v>5.6</v>
+        <v>740</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2.22</v>
+        <v>1.08</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="G72" t="n">
         <v>2.14</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I72" t="n">
         <v>4.3</v>
       </c>
       <c r="J72" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,13 +10147,13 @@
         <v>1.32</v>
       </c>
       <c r="P72" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q72" t="n">
         <v>1.32</v>
       </c>
       <c r="R72" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="S72" t="n">
         <v>3.15</v>
@@ -10171,37 +10171,37 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
         <v>90</v>
       </c>
       <c r="AB72" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD72" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
         <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
@@ -10210,16 +10210,16 @@
         <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
         <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
         <v>1000</v>
@@ -10261,7 +10261,7 @@
         <v>4.9</v>
       </c>
       <c r="I73" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J73" t="n">
         <v>3.9</v>
@@ -10933,10 +10933,10 @@
         <v>1.52</v>
       </c>
       <c r="H78" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I78" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J78" t="n">
         <v>5.1</v>
@@ -11002,7 +11002,7 @@
         <v>27</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF78" t="n">
         <v>13</v>
@@ -11023,7 +11023,7 @@
         <v>14</v>
       </c>
       <c r="AL78" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM78" t="n">
         <v>65</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="H81" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="I81" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="J81" t="n">
-        <v>3.7</v>
+        <v>1.54</v>
       </c>
       <c r="K81" t="n">
-        <v>4.1</v>
+        <v>17</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1.07</v>
+        <v>2.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11737,16 +11737,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H84" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I84" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.48</v>
       </c>
       <c r="J84" t="n">
         <v>3.35</v>
@@ -11812,7 +11812,7 @@
         <v>12</v>
       </c>
       <c r="AE84" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF84" t="n">
         <v>23</v>
@@ -11872,19 +11872,19 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="G85" t="n">
         <v>1000</v>
       </c>
       <c r="H85" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="I85" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="K85" t="n">
         <v>1000</v>
@@ -11905,7 +11905,7 @@
         <v>1.02</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>3.6</v>
       </c>
       <c r="O86" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P86" t="n">
         <v>1.87</v>
@@ -12061,58 +12061,58 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z86" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA86" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC86" t="n">
         <v>7.6</v>
       </c>
       <c r="AD86" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE86" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG86" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH86" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI86" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL86" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM86" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO86" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="G87" t="n">
-        <v>2.64</v>
+        <v>980</v>
       </c>
       <c r="H87" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="I87" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="J87" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="K87" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q87" t="n">
         <v>1.92</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="G89" t="n">
         <v>2.64</v>
@@ -12427,7 +12427,7 @@
         <v>2.46</v>
       </c>
       <c r="K89" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12553,13 +12553,13 @@
         <v>4.9</v>
       </c>
       <c r="H90" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I90" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J90" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K90" t="n">
         <v>4.1</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H92" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I92" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J92" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,34 +12841,34 @@
         <v>1.09</v>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="O92" t="n">
         <v>1.35</v>
       </c>
       <c r="P92" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q92" t="n">
         <v>2.16</v>
       </c>
       <c r="R92" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S92" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T92" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="W92" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X92" t="n">
         <v>14</v>
@@ -12913,7 +12913,7 @@
         <v>26</v>
       </c>
       <c r="AL92" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
         <v>150</v>
@@ -13387,10 +13387,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1.15</v>
+        <v>1.76</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G97" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="I97" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="J97" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="K97" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13900,7 +13900,7 @@
         <v>1.64</v>
       </c>
       <c r="G100" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H100" t="n">
         <v>5.6</v>
@@ -13927,19 +13927,19 @@
         <v>1.25</v>
       </c>
       <c r="P100" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q100" t="n">
         <v>1.75</v>
       </c>
       <c r="R100" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S100" t="n">
         <v>2.92</v>
       </c>
       <c r="T100" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U100" t="n">
         <v>2.14</v>
@@ -14002,7 +14002,7 @@
         <v>8.4</v>
       </c>
       <c r="AO100" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
@@ -14056,7 +14056,7 @@
         <v>1.13</v>
       </c>
       <c r="N101" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O101" t="n">
         <v>1.54</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.52</v>
+        <v>1.09</v>
       </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H102" t="n">
-        <v>2.6</v>
+        <v>1.09</v>
       </c>
       <c r="I102" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J102" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="K102" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="G103" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="H103" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I103" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="J103" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K103" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14446,10 +14446,10 @@
         <v>2.38</v>
       </c>
       <c r="I104" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J104" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K104" t="n">
         <v>3.1</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G106" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H106" t="n">
         <v>2.52</v>
@@ -14731,10 +14731,10 @@
         <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O106" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P106" t="n">
         <v>1.85</v>
@@ -14743,16 +14743,16 @@
         <v>2.1</v>
       </c>
       <c r="R106" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S106" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T106" t="n">
         <v>1.84</v>
       </c>
       <c r="U106" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -14761,16 +14761,16 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y106" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z106" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AA106" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB106" t="n">
         <v>12</v>
@@ -14779,40 +14779,40 @@
         <v>7.4</v>
       </c>
       <c r="AD106" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE106" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF106" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG106" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH106" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI106" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK106" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL106" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM106" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN106" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO106" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="107">
@@ -14851,10 +14851,10 @@
         <v>11</v>
       </c>
       <c r="I107" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J107" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K107" t="n">
         <v>6.4</v>
@@ -14878,7 +14878,7 @@
         <v>1.67</v>
       </c>
       <c r="R107" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S107" t="n">
         <v>2.66</v>
@@ -14986,13 +14986,13 @@
         <v>3.15</v>
       </c>
       <c r="I108" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J108" t="n">
         <v>3.1</v>
       </c>
       <c r="K108" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q108" t="n">
         <v>1.88</v>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G109" t="n">
         <v>2.4</v>
@@ -15127,7 +15127,7 @@
         <v>2.48</v>
       </c>
       <c r="K109" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15145,7 +15145,7 @@
         <v>1.41</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G111" t="n">
         <v>1.7</v>
@@ -15397,7 +15397,7 @@
         <v>3.55</v>
       </c>
       <c r="K111" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -15517,10 +15517,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G112" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
@@ -15532,7 +15532,7 @@
         <v>3.2</v>
       </c>
       <c r="K112" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q112" t="n">
         <v>1.86</v>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G113" t="n">
         <v>2.04</v>
@@ -15925,19 +15925,19 @@
         <v>1.38</v>
       </c>
       <c r="G115" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H115" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I115" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="J115" t="n">
         <v>4</v>
       </c>
       <c r="K115" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -15952,10 +15952,10 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -15976,10 +15976,10 @@
         <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y115" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z115" t="n">
         <v>1000</v>
@@ -15988,43 +15988,43 @@
         <v>1000</v>
       </c>
       <c r="AB115" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC115" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE115" t="n">
         <v>1000</v>
       </c>
       <c r="AF115" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG115" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH115" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI115" t="n">
         <v>1000</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK115" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL115" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM115" t="n">
         <v>1000</v>
       </c>
       <c r="AN115" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO115" t="n">
         <v>1000</v>
@@ -16192,19 +16192,19 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="G117" t="n">
         <v>1000</v>
       </c>
       <c r="H117" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="I117" t="n">
-        <v>1.61</v>
+        <v>1000</v>
       </c>
       <c r="J117" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="K117" t="n">
         <v>1000</v>
@@ -16222,10 +16222,10 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO117"/>
+  <dimension ref="A1:AO115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -694,13 +694,13 @@
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -712,58 +712,58 @@
         <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>150</v>
@@ -772,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I3" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>740</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
         <v>1.24</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="H8" t="n">
-        <v>1.23</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.01</v>
       </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.47</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.37</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.86</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
         <v>3.45</v>
@@ -2164,7 +2164,7 @@
         <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.15</v>
@@ -2176,7 +2176,7 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.45</v>
@@ -2185,7 +2185,7 @@
         <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
@@ -2197,7 +2197,7 @@
         <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2212,25 +2212,25 @@
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
         <v>48</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
@@ -2245,7 +2245,7 @@
         <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
@@ -2254,10 +2254,10 @@
         <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2434,10 +2434,10 @@
         <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="I16" t="n">
         <v>3.1</v>
@@ -2581,88 +2581,88 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
         <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
         <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
         <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="H17" t="n">
-        <v>1.27</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
         <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>5.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="Q20" t="n">
         <v>1.53</v>
@@ -3235,16 +3235,16 @@
         <v>2.88</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
         <v>2.56</v>
       </c>
       <c r="I21" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>3.55</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
         <v>2.68</v>
       </c>
       <c r="I23" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
@@ -3535,7 +3535,7 @@
         <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>980</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
-        <v>2.36</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.76</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,28 +3763,28 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
         <v>1000</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>3.9</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I26" t="n">
         <v>2.3</v>
@@ -3931,13 +3931,13 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q26" t="n">
         <v>2.5</v>
@@ -3949,10 +3949,10 @@
         <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3973,13 +3973,13 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
         <v>710</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.07</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G29" t="n">
         <v>8.199999999999999</v>
@@ -4321,7 +4321,7 @@
         <v>1.45</v>
       </c>
       <c r="I29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J29" t="n">
         <v>5.1</v>
@@ -4471,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
         <v>740</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.08</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q32" t="n">
         <v>1.75</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -4861,7 +4861,7 @@
         <v>1.61</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J33" t="n">
         <v>4.3</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G34" t="n">
         <v>1.6</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I34" t="n">
         <v>6.8</v>
@@ -5002,7 +5002,7 @@
         <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>2.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G36" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="H36" t="n">
         <v>4.8</v>
@@ -5272,7 +5272,7 @@
         <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="G37" t="n">
-        <v>980</v>
+        <v>1.66</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,61 +5653,61 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>NK Maribor</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="I39" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,64 +5716,64 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,61 +5788,61 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.72</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>2.94</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2.66</v>
+        <v>1.43</v>
       </c>
       <c r="I40" t="n">
-        <v>2.86</v>
+        <v>1.44</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5851,64 +5851,64 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,31 +5923,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="J41" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.08</v>
+        <v>1.91</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.97</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6070,10 +6070,10 @@
         <v>2.48</v>
       </c>
       <c r="G42" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
         <v>3.75</v>
@@ -6100,7 +6100,7 @@
         <v>1.59</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R42" t="n">
         <v>1.21</v>
@@ -6112,7 +6112,7 @@
         <v>2.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6133,13 +6133,13 @@
         <v>80</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
         <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE42" t="n">
         <v>60</v>
@@ -6163,13 +6163,13 @@
         <v>36</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM42" t="n">
         <v>200</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO42" t="n">
         <v>80</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I43" t="n">
         <v>2.6</v>
       </c>
-      <c r="I43" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>3.1</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N43" t="n">
         <v>2.76</v>
@@ -6262,52 +6262,52 @@
         <v>7.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC43" t="n">
         <v>7</v>
       </c>
       <c r="AD43" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG43" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH43" t="n">
         <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="n">
         <v>75</v>
       </c>
       <c r="AK43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL43" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM43" t="n">
         <v>210</v>
       </c>
       <c r="AN43" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO43" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H44" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I44" t="n">
         <v>2.46</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>3.3</v>
@@ -6370,7 +6370,7 @@
         <v>1.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
@@ -6394,10 +6394,10 @@
         <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
         <v>36</v>
@@ -6412,34 +6412,34 @@
         <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AG44" t="n">
         <v>15.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ44" t="n">
         <v>70</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM44" t="n">
         <v>160</v>
       </c>
       <c r="AN44" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AO44" t="n">
         <v>28</v>
@@ -6484,7 +6484,7 @@
         <v>2.14</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
         <v>8.199999999999999</v>
@@ -6505,7 +6505,7 @@
         <v>1.78</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I46" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J46" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K46" t="n">
         <v>3.3</v>
@@ -6640,7 +6640,7 @@
         <v>1.58</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Banik Ostrava</t>
         </is>
       </c>
       <c r="F47" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J47" t="n">
         <v>3.35</v>
       </c>
-      <c r="G47" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K47" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q47" t="n">
         <v>1.01</v>
       </c>
-      <c r="M47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R47" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,61 +6868,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="G48" t="n">
-        <v>1.92</v>
+        <v>2.64</v>
       </c>
       <c r="H48" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.95</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R48" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,64 +6931,64 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,61 +7003,61 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="G49" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="I49" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P49" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,64 +7066,64 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Banik Ostrava</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.85</v>
+        <v>3.35</v>
       </c>
       <c r="G50" t="n">
-        <v>2.28</v>
+        <v>5.3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>1.93</v>
       </c>
       <c r="I50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.7</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="Q50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T50" t="n">
         <v>1.01</v>
       </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,31 +7273,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="G51" t="n">
-        <v>2.66</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="I51" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="J51" t="n">
-        <v>2.94</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>980</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O52" t="n">
         <v>1.28</v>
       </c>
-      <c r="G52" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H52" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
       <c r="P52" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,37 +7543,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.22</v>
+        <v>1.28</v>
       </c>
       <c r="G53" t="n">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="K53" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7594,10 +7594,10 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7606,64 +7606,64 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,37 +7678,37 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>2.42</v>
       </c>
       <c r="H54" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>1.82</v>
+        <v>3.75</v>
       </c>
       <c r="J54" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.6</v>
+        <v>1.92</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,64 +7741,64 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="I55" t="n">
-        <v>2.64</v>
+        <v>1.82</v>
       </c>
       <c r="J55" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="K55" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="R55" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,121 +7948,121 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I56" t="n">
         <v>4.7</v>
       </c>
-      <c r="G56" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.8</v>
+        <v>2.42</v>
       </c>
       <c r="K56" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q56" t="n">
         <v>1.01</v>
       </c>
-      <c r="M56" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.18</v>
-      </c>
       <c r="R56" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO56" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -8083,31 +8083,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.07</v>
+        <v>2.32</v>
       </c>
       <c r="G57" t="n">
-        <v>980</v>
+        <v>2.76</v>
       </c>
       <c r="H57" t="n">
-        <v>1.07</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,127 +8218,127 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="G58" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="I58" t="n">
-        <v>980</v>
+        <v>1.87</v>
       </c>
       <c r="J58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L58" t="n">
         <v>1.01</v>
       </c>
-      <c r="K58" t="n">
-        <v>980</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P58" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,31 +8353,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="H59" t="n">
-        <v>1.63</v>
+        <v>2.58</v>
       </c>
       <c r="I59" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J59" t="n">
-        <v>1.59</v>
+        <v>3.25</v>
       </c>
       <c r="K59" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,31 +8488,31 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="G60" t="n">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="H60" t="n">
-        <v>1.24</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J60" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K60" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8527,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,127 +8623,127 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="G61" t="n">
-        <v>2.94</v>
+        <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>2.58</v>
+        <v>1.36</v>
       </c>
       <c r="I61" t="n">
-        <v>3.75</v>
+        <v>1.37</v>
       </c>
       <c r="J61" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="K61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>480</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>330</v>
+      </c>
+      <c r="AO61" t="n">
         <v>6.8</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,31 +8758,31 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="I62" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,61 +8893,61 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10.5</v>
+        <v>2.22</v>
       </c>
       <c r="G63" t="n">
-        <v>12.5</v>
+        <v>2.64</v>
       </c>
       <c r="H63" t="n">
-        <v>1.35</v>
+        <v>2.78</v>
       </c>
       <c r="I63" t="n">
-        <v>1.38</v>
+        <v>3.7</v>
       </c>
       <c r="J63" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="R63" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8956,58 +8956,58 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH63" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AL63" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AO63" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="G64" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H64" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I64" t="n">
         <v>2.62</v>
       </c>
       <c r="J64" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K64" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q64" t="n">
         <v>1.6</v>
@@ -9148,7 +9148,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,31 +9163,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Austria Wien</t>
+          <t>Mladost Lucani</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="G65" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="I65" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9298,31 +9298,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mladost Lucani</t>
+          <t>Austria Wien</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G66" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H66" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="I66" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J66" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K66" t="n">
-        <v>740</v>
+        <v>5.1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.08</v>
+        <v>1.74</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H67" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="J67" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K67" t="n">
-        <v>710</v>
+        <v>6.6</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.08</v>
+        <v>1.68</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9568,62 +9568,62 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F68" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U68" t="n">
         <v>2.02</v>
       </c>
-      <c r="G68" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S68" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T68" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
@@ -9631,64 +9631,64 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB68" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y68" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA68" t="n">
+      <c r="AC68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM68" t="n">
         <v>150</v>
       </c>
-      <c r="AB68" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>180</v>
-      </c>
       <c r="AN68" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AO68" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9703,61 +9703,61 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.98</v>
+        <v>1.9</v>
       </c>
       <c r="G69" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="H69" t="n">
-        <v>2.82</v>
+        <v>3.65</v>
       </c>
       <c r="I69" t="n">
-        <v>2.88</v>
+        <v>5.6</v>
       </c>
       <c r="J69" t="n">
-        <v>3.1</v>
+        <v>2.54</v>
       </c>
       <c r="K69" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R69" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -9766,64 +9766,64 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL69" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN69" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO69" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9838,61 +9838,61 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G70" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="H70" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="I70" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P70" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -9901,58 +9901,58 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM70" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN70" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
@@ -9982,19 +9982,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="G71" t="n">
-        <v>1000</v>
+        <v>1.82</v>
       </c>
       <c r="H71" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I71" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J71" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
         <v>740</v>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="G72" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
         <v>4.3</v>
       </c>
       <c r="J72" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10141,28 +10141,28 @@
         <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="R72" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="S72" t="n">
         <v>3.15</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -10171,55 +10171,55 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA72" t="n">
         <v>90</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE72" t="n">
         <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK72" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL72" t="n">
         <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN72" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO72" t="n">
         <v>1000</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="G73" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="H73" t="n">
-        <v>4.9</v>
+        <v>2.08</v>
       </c>
       <c r="I73" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K73" t="n">
-        <v>4.3</v>
+        <v>710</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10513,12 +10513,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -10690,7 +10690,7 @@
         <v>1.02</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10783,12 +10783,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="Q77" t="n">
         <v>1.01</v>
@@ -10930,10 +10930,10 @@
         <v>1.5</v>
       </c>
       <c r="G78" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H78" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I78" t="n">
         <v>7.2</v>
@@ -10972,7 +10972,7 @@
         <v>1.6</v>
       </c>
       <c r="U78" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -10987,13 +10987,13 @@
         <v>40</v>
       </c>
       <c r="Z78" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA78" t="n">
         <v>190</v>
       </c>
       <c r="AB78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC78" t="n">
         <v>13</v>
@@ -11026,10 +11026,10 @@
         <v>24</v>
       </c>
       <c r="AM78" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO78" t="n">
         <v>55</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="G80" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J80" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="K80" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,31 +11323,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Zilina</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.34</v>
+        <v>1.73</v>
       </c>
       <c r="G81" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="H81" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="I81" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J81" t="n">
-        <v>1.54</v>
+        <v>3.6</v>
       </c>
       <c r="K81" t="n">
-        <v>17</v>
+        <v>5.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11458,62 +11458,62 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S82" t="n">
         <v>3.95</v>
       </c>
-      <c r="G82" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="T82" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U82" t="n">
         <v>2.1</v>
       </c>
-      <c r="J82" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>0</v>
-      </c>
-      <c r="U82" t="n">
-        <v>0</v>
-      </c>
       <c r="V82" t="n">
         <v>0</v>
       </c>
@@ -11521,64 +11521,64 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11593,31 +11593,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I83" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K83" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11728,61 +11728,61 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="G84" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="H84" t="n">
-        <v>2.44</v>
+        <v>1.17</v>
       </c>
       <c r="I84" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="J84" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="K84" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q84" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q84" t="n">
-        <v>2.14</v>
-      </c>
       <c r="R84" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -11791,64 +11791,64 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AA84" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK84" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM84" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN84" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AO84" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11863,31 +11863,31 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="G85" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="H85" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I85" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="K85" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="Q85" t="n">
         <v>1.01</v>
@@ -11983,7 +11983,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11998,61 +11998,61 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="G86" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="H86" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="I86" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="J86" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="R86" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -12061,64 +12061,64 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB86" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,61 +12133,61 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.05</v>
+        <v>2.84</v>
       </c>
       <c r="G87" t="n">
-        <v>980</v>
+        <v>2.86</v>
       </c>
       <c r="H87" t="n">
-        <v>1.05</v>
+        <v>2.76</v>
       </c>
       <c r="I87" t="n">
-        <v>980</v>
+        <v>2.78</v>
       </c>
       <c r="J87" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K87" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P87" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,58 +12196,58 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G88" t="n">
         <v>1.58</v>
@@ -12286,10 +12286,10 @@
         <v>2.82</v>
       </c>
       <c r="I88" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="J88" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K88" t="n">
         <v>950</v>
@@ -12310,7 +12310,7 @@
         <v>1.82</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="G89" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="H89" t="n">
         <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="J89" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12559,7 +12559,7 @@
         <v>1.91</v>
       </c>
       <c r="J90" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
         <v>4.1</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G92" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H92" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I92" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K92" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,10 +12841,10 @@
         <v>1.09</v>
       </c>
       <c r="N92" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P92" t="n">
         <v>1.73</v>
@@ -12853,73 +12853,73 @@
         <v>2.16</v>
       </c>
       <c r="R92" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S92" t="n">
         <v>3.5</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V92" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="W92" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="X92" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA92" t="n">
         <v>100</v>
       </c>
       <c r="AB92" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC92" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD92" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE92" t="n">
         <v>65</v>
       </c>
       <c r="AF92" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG92" t="n">
         <v>11.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI92" t="n">
         <v>80</v>
       </c>
       <c r="AJ92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL92" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM92" t="n">
         <v>150</v>
       </c>
       <c r="AN92" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO92" t="n">
         <v>75</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G93" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="H93" t="n">
-        <v>2.98</v>
+        <v>10.5</v>
       </c>
       <c r="I93" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="J93" t="n">
-        <v>2.86</v>
+        <v>5.2</v>
       </c>
       <c r="K93" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,19 +13087,19 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G94" t="n">
         <v>7.6</v>
       </c>
       <c r="H94" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I94" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J94" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K94" t="n">
         <v>1000</v>
@@ -13117,10 +13117,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.02</v>
+        <v>2.26</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G95" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H95" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J95" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K95" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -13252,10 +13252,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>9</v>
       </c>
       <c r="I96" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J96" t="n">
         <v>4.6</v>
@@ -13468,7 +13468,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13478,36 +13478,36 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13618,12 +13618,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -13738,7 +13738,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -13748,66 +13748,66 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P99" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13816,58 +13816,58 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100">
@@ -13900,7 +13900,7 @@
         <v>1.64</v>
       </c>
       <c r="G100" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H100" t="n">
         <v>5.6</v>
@@ -13924,22 +13924,22 @@
         <v>4.5</v>
       </c>
       <c r="O100" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P100" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R100" t="n">
         <v>1.48</v>
       </c>
       <c r="S100" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T100" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U100" t="n">
         <v>2.14</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y100" t="n">
         <v>23</v>
@@ -13972,7 +13972,7 @@
         <v>23</v>
       </c>
       <c r="AE100" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF100" t="n">
         <v>11</v>
@@ -14002,13 +14002,13 @@
         <v>8.4</v>
       </c>
       <c r="AO100" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14018,33 +14018,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="I101" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="J101" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K101" t="n">
         <v>3.1</v>
@@ -14053,31 +14053,31 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="R101" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
@@ -14086,64 +14086,64 @@
         <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z101" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB101" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC101" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AD101" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE101" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF101" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH101" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI101" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ101" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK101" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL101" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM101" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN101" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO101" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14158,22 +14158,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G102" t="n">
         <v>1000</v>
       </c>
       <c r="H102" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I102" t="n">
         <v>1000</v>
@@ -14182,7 +14182,7 @@
         <v>1.01</v>
       </c>
       <c r="K102" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q102" t="n">
         <v>1.01</v>
@@ -14278,7 +14278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14293,61 +14293,61 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G103" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="I103" t="n">
-        <v>980</v>
+        <v>2.56</v>
       </c>
       <c r="J103" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K103" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P103" t="n">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
@@ -14356,64 +14356,64 @@
         <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH103" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI103" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ103" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL103" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM103" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN103" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO103" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,31 +14428,31 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.75</v>
+        <v>1.82</v>
       </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>1.99</v>
       </c>
       <c r="H104" t="n">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="I104" t="n">
-        <v>2.54</v>
+        <v>5.1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="K104" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.92</v>
+        <v>1.71</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14548,7 +14548,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14563,31 +14563,31 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="G105" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
       <c r="I105" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J105" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="K105" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14693,66 +14693,66 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.3</v>
+        <v>1.33</v>
       </c>
       <c r="H106" t="n">
-        <v>2.52</v>
+        <v>11</v>
       </c>
       <c r="I106" t="n">
-        <v>2.56</v>
+        <v>13.5</v>
       </c>
       <c r="J106" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="K106" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N106" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="O106" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P106" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R106" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="S106" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="T106" t="n">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="U106" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -14761,64 +14761,64 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC106" t="n">
         <v>14</v>
       </c>
-      <c r="Y106" t="n">
+      <c r="AD106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG106" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>980</v>
       </c>
       <c r="AH106" t="n">
         <v>980</v>
       </c>
       <c r="AI106" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ106" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK106" t="n">
         <v>980</v>
       </c>
       <c r="AL106" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM106" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN106" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="AO106" t="n">
-        <v>980</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14828,66 +14828,66 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.31</v>
+        <v>1.93</v>
       </c>
       <c r="G107" t="n">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
-        <v>11</v>
+        <v>3.15</v>
       </c>
       <c r="I107" t="n">
-        <v>13.5</v>
+        <v>4.8</v>
       </c>
       <c r="J107" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="K107" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>2.22</v>
+        <v>1.71</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="R107" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U107" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V107" t="n">
         <v>0</v>
@@ -14896,55 +14896,55 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y107" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z107" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA107" t="n">
         <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC107" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD107" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE107" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG107" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH107" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI107" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK107" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL107" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM107" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
         <v>1000</v>
@@ -14953,7 +14953,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14963,42 +14963,42 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:20:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="G108" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H108" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I108" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="J108" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="K108" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -15007,10 +15007,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -15019,10 +15019,10 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
@@ -15031,64 +15031,64 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15098,36 +15098,36 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>18:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15223,7 +15223,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15233,36 +15233,36 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -15277,10 +15277,10 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15385,13 +15385,13 @@
         <v>1.63</v>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H111" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I111" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J111" t="n">
         <v>3.55</v>
@@ -15412,10 +15412,10 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -15503,36 +15503,36 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>1.31</v>
       </c>
       <c r="I112" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J112" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="K112" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -15547,10 +15547,10 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -15628,7 +15628,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -15638,36 +15638,36 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.92</v>
       </c>
-      <c r="G113" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H113" t="n">
-        <v>3.95</v>
-      </c>
       <c r="I113" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="J113" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="K113" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -15682,10 +15682,10 @@
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -15763,7 +15763,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15778,37 +15778,37 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -15817,22 +15817,22 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="Q114" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
         <v>1.01</v>
       </c>
-      <c r="R114" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0</v>
-      </c>
-      <c r="T114" t="n">
-        <v>0</v>
-      </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V114" t="n">
         <v>0</v>
@@ -15841,64 +15841,64 @@
         <v>0</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -15913,50 +15913,50 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q115" t="n">
         <v>1.01</v>
       </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>1.71</v>
-      </c>
       <c r="R115" t="n">
         <v>0</v>
       </c>
@@ -15964,10 +15964,10 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V115" t="n">
         <v>0</v>
@@ -15976,327 +15976,57 @@
         <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB115" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AD115" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AE115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF115" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG115" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH115" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ115" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK115" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AL115" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM115" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN115" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO115" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Deportivo Cali</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>0</v>
-      </c>
-      <c r="U116" t="n">
-        <v>0</v>
-      </c>
-      <c r="V116" t="n">
-        <v>0</v>
-      </c>
-      <c r="W116" t="n">
-        <v>0</v>
-      </c>
-      <c r="X116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Central Espanol</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0</v>
-      </c>
-      <c r="S117" t="n">
-        <v>0</v>
-      </c>
-      <c r="T117" t="n">
-        <v>0</v>
-      </c>
-      <c r="U117" t="n">
-        <v>0</v>
-      </c>
-      <c r="V117" t="n">
-        <v>0</v>
-      </c>
-      <c r="W117" t="n">
-        <v>0</v>
-      </c>
-      <c r="X117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO117" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO121"/>
+  <dimension ref="A1:AO123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,61 +670,61 @@
         <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.25</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
         <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -733,28 +733,28 @@
         <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -766,13 +766,13 @@
         <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>110</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,16 +967,16 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1249,13 +1249,13 @@
         <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W6" t="n">
         <v>1.22</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.45</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1765,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1777,13 +1777,13 @@
         <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
         <v>2.16</v>
@@ -1792,7 +1792,7 @@
         <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1885,13 +1885,13 @@
         <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
         <v>2.76</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1906,88 +1906,88 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.5</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G12" t="n">
         <v>2.04</v>
@@ -2056,7 +2056,7 @@
         <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
         <v>1.92</v>
@@ -2077,7 +2077,7 @@
         <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>130</v>
@@ -2107,13 +2107,13 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="H13" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,43 +2218,43 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
         <v>2.68</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.05</v>
@@ -2305,7 +2305,7 @@
         <v>3.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
@@ -2317,10 +2317,10 @@
         <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2386,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
         <v>30</v>
@@ -2560,10 +2560,10 @@
         <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
         <v>3.1</v>
@@ -2581,10 +2581,10 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
         <v>1.85</v>
@@ -2599,16 +2599,16 @@
         <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
         <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
         <v>3.1</v>
@@ -2701,10 +2701,10 @@
         <v>2.76</v>
       </c>
       <c r="I17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.35</v>
@@ -2716,7 +2716,7 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
@@ -2725,7 +2725,7 @@
         <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2734,7 +2734,7 @@
         <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
         <v>1.88</v>
@@ -2758,7 +2758,7 @@
         <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>8.6</v>
@@ -3118,31 +3118,31 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
         <v>1.71</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V20" t="n">
         <v>1.03</v>
@@ -3151,55 +3151,55 @@
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.28</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
         <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I22" t="n">
         <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3394,10 +3394,10 @@
         <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q22" t="n">
         <v>2.12</v>
@@ -3409,7 +3409,7 @@
         <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
         <v>2.06</v>
@@ -3520,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3580,7 +3580,7 @@
         <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -3778,7 +3778,7 @@
         <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I25" t="n">
         <v>2.64</v>
@@ -3796,16 +3796,16 @@
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
         <v>1.22</v>
@@ -3814,7 +3814,7 @@
         <v>4.9</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>1.86</v>
@@ -3913,7 +3913,7 @@
         <v>1.93</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -3952,7 +3952,7 @@
         <v>1.62</v>
       </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
         <v>1.27</v>
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
@@ -4009,7 +4009,7 @@
         <v>990</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO26" t="n">
         <v>910</v>
@@ -4048,7 +4048,7 @@
         <v>3.95</v>
       </c>
       <c r="H27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
         <v>2.3</v>
@@ -4075,19 +4075,19 @@
         <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R27" t="n">
         <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
         <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V27" t="n">
         <v>1.76</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="G28" t="n">
         <v>1.37</v>
@@ -4192,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4630,64 +4630,64 @@
         <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W31" t="n">
         <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL31" t="n">
         <v>55</v>
       </c>
-      <c r="AF31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>70</v>
-      </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="G32" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>5.8</v>
@@ -4732,7 +4732,7 @@
         <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>740</v>
+        <v>8.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S32" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4768,7 +4768,7 @@
         <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4855,19 +4855,19 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="I33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J33" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K33" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,7 +4876,7 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="O33" t="n">
         <v>1.26</v>
@@ -4891,7 +4891,7 @@
         <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T33" t="n">
         <v>1.65</v>
@@ -4900,10 +4900,10 @@
         <v>1.92</v>
       </c>
       <c r="V33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W33" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G34" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I34" t="n">
         <v>1.69</v>
       </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
         <v>4.8</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5020,19 +5020,19 @@
         <v>2.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T34" t="n">
         <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V34" t="n">
         <v>2.44</v>
@@ -5125,7 +5125,7 @@
         <v>1.55</v>
       </c>
       <c r="G35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>6.4</v>
@@ -5149,13 +5149,13 @@
         <v>5.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P35" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="R35" t="n">
         <v>1.64</v>
@@ -5173,7 +5173,7 @@
         <v>1.16</v>
       </c>
       <c r="W35" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X35" t="n">
         <v>26</v>
@@ -5263,16 +5263,16 @@
         <v>4.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.35</v>
@@ -5305,7 +5305,7 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W36" t="n">
         <v>1.28</v>
@@ -5401,7 +5401,7 @@
         <v>5.1</v>
       </c>
       <c r="I37" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -5413,31 +5413,31 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="O37" t="n">
         <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R37" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="S37" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
         <v>1.2</v>
@@ -5446,58 +5446,58 @@
         <v>2.3</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -5548,7 +5548,7 @@
         <v>1.43</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
         <v>3.5</v>
@@ -5563,28 +5563,28 @@
         <v>2.04</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S38" t="n">
         <v>3.7</v>
       </c>
       <c r="T38" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U38" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X38" t="n">
         <v>16.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="n">
         <v>55</v>
@@ -5596,10 +5596,10 @@
         <v>8.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE38" t="n">
         <v>120</v>
@@ -5608,16 +5608,16 @@
         <v>11</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
         <v>120</v>
       </c>
       <c r="AJ38" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AK38" t="n">
         <v>23</v>
@@ -5629,7 +5629,7 @@
         <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
         <v>170</v>
@@ -5713,7 +5713,7 @@
         <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I41" t="n">
         <v>2.76</v>
@@ -5947,10 +5947,10 @@
         <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
@@ -5959,25 +5959,25 @@
         <v>3.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
         <v>1.36</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T41" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U41" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V41" t="n">
         <v>1.56</v>
@@ -6067,112 +6067,112 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="G42" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.58</v>
       </c>
-      <c r="I42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>14</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="U42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W42" t="n">
         <v>1.19</v>
       </c>
-      <c r="P42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.16</v>
-      </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G43" t="n">
         <v>2.54</v>
@@ -6226,7 +6226,7 @@
         <v>1.13</v>
       </c>
       <c r="N43" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O43" t="n">
         <v>1.55</v>
@@ -6370,7 +6370,7 @@
         <v>1.59</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R44" t="n">
         <v>1.21</v>
@@ -6478,7 +6478,7 @@
         <v>3.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I45" t="n">
         <v>2.5</v>
@@ -6502,7 +6502,7 @@
         <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
         <v>2.34</v>
@@ -6520,7 +6520,7 @@
         <v>1.96</v>
       </c>
       <c r="V45" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6571,7 +6571,7 @@
         <v>65</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="n">
         <v>55</v>
@@ -6616,7 +6616,7 @@
         <v>1.87</v>
       </c>
       <c r="I46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>3.55</v>
@@ -6640,7 +6640,7 @@
         <v>1.77</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R46" t="n">
         <v>1.29</v>
@@ -6655,7 +6655,7 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
         <v>1.26</v>
@@ -6745,55 +6745,55 @@
         <v>3.25</v>
       </c>
       <c r="G47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I47" t="n">
         <v>2.7</v>
       </c>
       <c r="J47" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="O47" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R47" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="V47" t="n">
         <v>1.58</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X47" t="n">
         <v>9.800000000000001</v>
@@ -6811,7 +6811,7 @@
         <v>10.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD47" t="n">
         <v>13.5</v>
@@ -6832,19 +6832,19 @@
         <v>65</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="n">
         <v>50</v>
       </c>
       <c r="AL47" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM47" t="n">
         <v>190</v>
       </c>
       <c r="AN47" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO47" t="n">
         <v>42</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.96</v>
       </c>
       <c r="K48" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L48" t="n">
         <v>1.36</v>
@@ -6925,10 +6925,10 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7015,10 +7015,10 @@
         <v>1.97</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H49" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
         <v>4.3</v>
@@ -7042,19 +7042,19 @@
         <v>1.26</v>
       </c>
       <c r="P49" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R49" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U49" t="n">
         <v>2.3</v>
@@ -7081,7 +7081,7 @@
         <v>10.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD49" t="n">
         <v>16.5</v>
@@ -7102,7 +7102,7 @@
         <v>50</v>
       </c>
       <c r="AJ49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK49" t="n">
         <v>19</v>
@@ -7219,13 +7219,13 @@
         <v>9.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE50" t="n">
         <v>80</v>
       </c>
       <c r="AF50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG50" t="n">
         <v>10</v>
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="AO50" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -7297,7 +7297,7 @@
         <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7309,10 +7309,10 @@
         <v>3.85</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q51" t="n">
         <v>1.72</v>
@@ -7321,13 +7321,13 @@
         <v>1.38</v>
       </c>
       <c r="S51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U51" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V51" t="n">
         <v>1.29</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G52" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="H52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N52" t="n">
         <v>3.35</v>
       </c>
-      <c r="I52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.79</v>
-      </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="R52" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V52" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W52" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
@@ -7558,103 +7558,103 @@
         <v>1.39</v>
       </c>
       <c r="H53" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K53" t="n">
         <v>5.9</v>
       </c>
-      <c r="I53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6</v>
-      </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>2.18</v>
+        <v>4.4</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P53" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S53" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V53" t="n">
         <v>1.08</v>
       </c>
       <c r="W53" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="n">
         <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7693,10 +7693,10 @@
         <v>2.4</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J54" t="n">
         <v>3.4</v>
@@ -7723,16 +7723,16 @@
         <v>1.96</v>
       </c>
       <c r="R54" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S54" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T54" t="n">
         <v>1.76</v>
       </c>
       <c r="U54" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V54" t="n">
         <v>1.37</v>
@@ -7756,7 +7756,7 @@
         <v>11.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD54" t="n">
         <v>17</v>
@@ -7780,7 +7780,7 @@
         <v>36</v>
       </c>
       <c r="AK54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL54" t="n">
         <v>44</v>
@@ -7789,7 +7789,7 @@
         <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO54" t="n">
         <v>46</v>
@@ -7828,10 +7828,10 @@
         <v>5.2</v>
       </c>
       <c r="H55" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I55" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J55" t="n">
         <v>4.5</v>
@@ -7846,31 +7846,31 @@
         <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O55" t="n">
         <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q55" t="n">
         <v>1.52</v>
       </c>
       <c r="R55" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="S55" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T55" t="n">
         <v>1.59</v>
       </c>
       <c r="U55" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V55" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W55" t="n">
         <v>1.23</v>
@@ -7900,13 +7900,13 @@
         <v>16.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG55" t="n">
         <v>20</v>
       </c>
       <c r="AH55" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI55" t="n">
         <v>26</v>
@@ -8107,7 +8107,7 @@
         <v>2.96</v>
       </c>
       <c r="K57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8122,10 +8122,10 @@
         <v>1.28</v>
       </c>
       <c r="P57" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R57" t="n">
         <v>1.27</v>
@@ -8134,7 +8134,7 @@
         <v>2.94</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="U57" t="n">
         <v>1.94</v>
@@ -8230,7 +8230,7 @@
         <v>4.8</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H58" t="n">
         <v>1.86</v>
@@ -8251,13 +8251,13 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O58" t="n">
         <v>1.37</v>
       </c>
       <c r="P58" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q58" t="n">
         <v>2.1</v>
@@ -8266,13 +8266,13 @@
         <v>1.32</v>
       </c>
       <c r="S58" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T58" t="n">
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V58" t="n">
         <v>2.14</v>
@@ -8365,19 +8365,19 @@
         <v>2.24</v>
       </c>
       <c r="G59" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H59" t="n">
         <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
         <v>3.1</v>
       </c>
       <c r="K59" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8404,16 +8404,16 @@
         <v>4.4</v>
       </c>
       <c r="T59" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U59" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V59" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W59" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X59" t="n">
         <v>12.5</v>
@@ -8497,40 +8497,40 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G60" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I60" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
       </c>
       <c r="K60" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L60" t="n">
         <v>1.43</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>1.29</v>
+        <v>3.3</v>
       </c>
       <c r="O60" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P60" t="n">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R60" t="n">
         <v>1.29</v>
@@ -8539,16 +8539,16 @@
         <v>3.85</v>
       </c>
       <c r="T60" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U60" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="V60" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W60" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X60" t="n">
         <v>13</v>
@@ -8581,13 +8581,13 @@
         <v>13</v>
       </c>
       <c r="AH60" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI60" t="n">
         <v>55</v>
       </c>
       <c r="AJ60" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="n">
         <v>34</v>
@@ -8656,13 +8656,13 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O61" t="n">
         <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q61" t="n">
         <v>1.62</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G62" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="H62" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I62" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J62" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>4.2</v>
+        <v>1.94</v>
       </c>
       <c r="O62" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P62" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R62" t="n">
         <v>1.37</v>
       </c>
       <c r="S62" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T62" t="n">
         <v>1.53</v>
@@ -8815,7 +8815,7 @@
         <v>2.26</v>
       </c>
       <c r="V62" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W62" t="n">
         <v>1.54</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,127 +8893,127 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G63" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="H63" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="I63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N63" t="n">
         <v>3.55</v>
       </c>
-      <c r="K63" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE63" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN63" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,127 +9028,127 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="G64" t="n">
-        <v>2.38</v>
+        <v>10.5</v>
       </c>
       <c r="H64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V64" t="n">
         <v>3.55</v>
       </c>
-      <c r="I64" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U64" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W64" t="n">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="X64" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z64" t="n">
-        <v>27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA64" t="n">
-        <v>70</v>
+        <v>11.5</v>
       </c>
       <c r="AB64" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD64" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC64" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>16</v>
-      </c>
       <c r="AE64" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG64" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AH64" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AI64" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AJ64" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AK64" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="AL64" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AM64" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN64" t="n">
-        <v>19.5</v>
+        <v>250</v>
       </c>
       <c r="AO64" t="n">
-        <v>55</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,121 +9163,121 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>9.199999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>2.68</v>
       </c>
       <c r="H65" t="n">
-        <v>1.37</v>
+        <v>2.84</v>
       </c>
       <c r="I65" t="n">
-        <v>1.39</v>
+        <v>3.45</v>
       </c>
       <c r="J65" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="K65" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AG65" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AH65" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ65" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AK65" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AL65" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AO65" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G66" t="n">
         <v>2.88</v>
@@ -9337,10 +9337,10 @@
         <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R66" t="n">
         <v>1.61</v>
@@ -9352,10 +9352,10 @@
         <v>1.51</v>
       </c>
       <c r="U66" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="V66" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W66" t="n">
         <v>1.53</v>
@@ -9373,7 +9373,7 @@
         <v>36</v>
       </c>
       <c r="AB66" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC66" t="n">
         <v>12</v>
@@ -9385,34 +9385,34 @@
         <v>28</v>
       </c>
       <c r="AF66" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG66" t="n">
         <v>16.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ66" t="n">
         <v>55</v>
       </c>
       <c r="AK66" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL66" t="n">
         <v>34</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>38</v>
       </c>
       <c r="AM66" t="n">
         <v>65</v>
       </c>
       <c r="AN66" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="67">
@@ -9442,112 +9442,112 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G67" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H67" t="n">
         <v>2.94</v>
       </c>
       <c r="I67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K67" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="O67" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P67" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R67" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S67" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T67" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V67" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W67" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X67" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y67" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA67" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB67" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD67" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE67" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF67" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK67" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL67" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN67" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
@@ -9715,13 +9715,13 @@
         <v>1.84</v>
       </c>
       <c r="G69" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H69" t="n">
         <v>3.75</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J69" t="n">
         <v>3.15</v>
@@ -9763,7 +9763,7 @@
         <v>1.21</v>
       </c>
       <c r="W69" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G70" t="n">
         <v>2.02</v>
@@ -9871,28 +9871,28 @@
         <v>1.11</v>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O70" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P70" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S70" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U70" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V70" t="n">
         <v>1.23</v>
@@ -9913,10 +9913,10 @@
         <v>130</v>
       </c>
       <c r="AB70" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC70" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD70" t="n">
         <v>21</v>
@@ -9925,7 +9925,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG70" t="n">
         <v>11</v>
@@ -9937,7 +9937,7 @@
         <v>95</v>
       </c>
       <c r="AJ70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK70" t="n">
         <v>24</v>
@@ -10006,7 +10006,7 @@
         <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O71" t="n">
         <v>1.43</v>
@@ -10021,10 +10021,10 @@
         <v>1.27</v>
       </c>
       <c r="S71" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U71" t="n">
         <v>2.02</v>
@@ -10042,13 +10042,13 @@
         <v>9.6</v>
       </c>
       <c r="Z71" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA71" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB71" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC71" t="n">
         <v>7</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G72" t="n">
         <v>2.08</v>
@@ -10126,7 +10126,7 @@
         <v>4.4</v>
       </c>
       <c r="I72" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J72" t="n">
         <v>3.15</v>
@@ -10141,19 +10141,19 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="O72" t="n">
         <v>1.02</v>
       </c>
       <c r="P72" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="Q72" t="n">
         <v>2.24</v>
       </c>
       <c r="R72" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S72" t="n">
         <v>4.1</v>
@@ -10255,7 +10255,7 @@
         <v>1.59</v>
       </c>
       <c r="G73" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H73" t="n">
         <v>4.6</v>
@@ -10285,7 +10285,7 @@
         <v>2.04</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R73" t="n">
         <v>1.43</v>
@@ -10294,19 +10294,19 @@
         <v>2.36</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V73" t="n">
         <v>1.16</v>
       </c>
       <c r="W73" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X73" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y73" t="n">
         <v>32</v>
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G74" t="n">
         <v>2.08</v>
       </c>
       <c r="H74" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I74" t="n">
         <v>4.3</v>
@@ -10411,13 +10411,13 @@
         <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O74" t="n">
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
@@ -10429,7 +10429,7 @@
         <v>3.6</v>
       </c>
       <c r="T74" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U74" t="n">
         <v>2</v>
@@ -10498,7 +10498,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,67 +10513,67 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F75" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M75" t="n">
         <v>1.04</v>
       </c>
-      <c r="G75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N75" t="n">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P75" t="n">
-        <v>1.18</v>
+        <v>2.02</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="R75" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="S75" t="n">
-        <v>1.33</v>
+        <v>2.84</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V75" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W75" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -10633,7 +10633,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,31 +10648,31 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="G76" t="n">
-        <v>1.95</v>
+        <v>1000</v>
       </c>
       <c r="H76" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I76" t="n">
         <v>1000</v>
       </c>
       <c r="J76" t="n">
-        <v>3.9</v>
+        <v>1.02</v>
       </c>
       <c r="K76" t="n">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10681,34 +10681,34 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="O76" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P76" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="R76" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S76" t="n">
-        <v>2.62</v>
+        <v>1.33</v>
       </c>
       <c r="T76" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U76" t="n">
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W76" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10783,55 +10783,55 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="G77" t="n">
-        <v>1.75</v>
+        <v>1000</v>
       </c>
       <c r="H77" t="n">
-        <v>5.7</v>
+        <v>1.04</v>
       </c>
       <c r="I77" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="J77" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="K77" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L77" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M77" t="n">
         <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="O77" t="n">
-        <v>1.31</v>
+        <v>1.02</v>
       </c>
       <c r="P77" t="n">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="R77" t="n">
         <v>1.18</v>
       </c>
       <c r="S77" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="T77" t="n">
         <v>1.01</v>
@@ -10840,10 +10840,10 @@
         <v>1.01</v>
       </c>
       <c r="V77" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W77" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10918,55 +10918,55 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.4</v>
+        <v>1.43</v>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="H78" t="n">
-        <v>2.44</v>
+        <v>5.7</v>
       </c>
       <c r="I78" t="n">
-        <v>3.65</v>
+        <v>150</v>
       </c>
       <c r="J78" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="K78" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="M78" t="n">
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="O78" t="n">
-        <v>1.02</v>
+        <v>1.31</v>
       </c>
       <c r="P78" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="R78" t="n">
         <v>1.18</v>
       </c>
       <c r="S78" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="T78" t="n">
         <v>1.01</v>
@@ -10975,10 +10975,10 @@
         <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="W78" t="n">
-        <v>1.4</v>
+        <v>2.34</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -11038,7 +11038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,127 +11053,127 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.51</v>
+        <v>2.4</v>
       </c>
       <c r="G79" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
-        <v>6.4</v>
+        <v>2.44</v>
       </c>
       <c r="I79" t="n">
-        <v>6.8</v>
+        <v>3.65</v>
       </c>
       <c r="J79" t="n">
-        <v>5.2</v>
+        <v>2.74</v>
       </c>
       <c r="K79" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L79" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="M79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O79" t="n">
         <v>1.02</v>
       </c>
-      <c r="N79" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P79" t="n">
-        <v>3.15</v>
+        <v>1.44</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="R79" t="n">
-        <v>1.89</v>
+        <v>1.18</v>
       </c>
       <c r="S79" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="T79" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U79" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="W79" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="X79" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z79" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA79" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD79" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF79" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG79" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI79" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL79" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AM79" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,121 +11188,121 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="G80" t="n">
-        <v>3.05</v>
+        <v>1.53</v>
       </c>
       <c r="H80" t="n">
-        <v>2.68</v>
+        <v>6.4</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="J80" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="K80" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L80" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>1.65</v>
+        <v>7.6</v>
       </c>
       <c r="O80" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="P80" t="n">
-        <v>1.65</v>
+        <v>3.15</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="R80" t="n">
-        <v>1.08</v>
+        <v>1.88</v>
       </c>
       <c r="S80" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="V80" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="W80" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="X80" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y80" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z80" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB80" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF80" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL80" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
@@ -11323,55 +11323,55 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G81" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H81" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="I81" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="K81" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L81" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M81" t="n">
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="O81" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="R81" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="S81" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="T81" t="n">
         <v>1.01</v>
@@ -11380,10 +11380,10 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W81" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11470,7 +11470,7 @@
         <v>1.47</v>
       </c>
       <c r="G82" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H82" t="n">
         <v>4.5</v>
@@ -11479,7 +11479,7 @@
         <v>9.6</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K82" t="n">
         <v>10.5</v>
@@ -11518,7 +11518,7 @@
         <v>1.11</v>
       </c>
       <c r="W82" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X82" t="n">
         <v>1000</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G83" t="n">
         <v>5.8</v>
@@ -11611,25 +11611,25 @@
         <v>1.8</v>
       </c>
       <c r="I83" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J83" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K83" t="n">
         <v>4.5</v>
       </c>
       <c r="L83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O83" t="n">
         <v>1.32</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.01</v>
       </c>
       <c r="P83" t="n">
         <v>1.85</v>
@@ -11638,76 +11638,76 @@
         <v>1.94</v>
       </c>
       <c r="R83" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S83" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V83" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="W83" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X83" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y83" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z83" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB83" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC83" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD83" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE83" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF83" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH83" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI83" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ83" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK83" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL83" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN83" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO83" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -11746,7 +11746,7 @@
         <v>2.74</v>
       </c>
       <c r="I84" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J84" t="n">
         <v>3.6</v>
@@ -11785,7 +11785,7 @@
         <v>2.28</v>
       </c>
       <c r="V84" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W84" t="n">
         <v>1.6</v>
@@ -11899,7 +11899,7 @@
         <v>3.45</v>
       </c>
       <c r="O85" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P85" t="n">
         <v>1.81</v>
@@ -12007,112 +12007,112 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G86" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H86" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I86" t="n">
         <v>5.8</v>
       </c>
       <c r="J86" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K86" t="n">
         <v>5.2</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="O86" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P86" t="n">
         <v>2.22</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R86" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="S86" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U86" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V86" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W86" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y86" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB86" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD86" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF86" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK86" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL86" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
@@ -12148,10 +12148,10 @@
         <v>2.86</v>
       </c>
       <c r="H87" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I87" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="J87" t="n">
         <v>3.6</v>
@@ -12187,10 +12187,10 @@
         <v>1.46</v>
       </c>
       <c r="U87" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V87" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W87" t="n">
         <v>1.53</v>
@@ -12253,7 +12253,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,127 +12268,127 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.44</v>
+        <v>1.3</v>
       </c>
       <c r="G88" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="H88" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I88" t="n">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="J88" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="K88" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L88" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>3.55</v>
+        <v>1.83</v>
       </c>
       <c r="O88" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P88" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="R88" t="n">
         <v>1.32</v>
       </c>
       <c r="S88" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="T88" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U88" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.41</v>
+        <v>1.05</v>
       </c>
       <c r="W88" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="X88" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y88" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z88" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA88" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC88" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD88" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE88" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF88" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG88" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH88" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI88" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ88" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK88" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL88" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM88" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN88" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO88" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,127 +12403,127 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.3</v>
+        <v>2.16</v>
       </c>
       <c r="G89" t="n">
-        <v>1.51</v>
+        <v>2.32</v>
       </c>
       <c r="H89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S89" t="n">
         <v>3.55</v>
       </c>
-      <c r="I89" t="n">
+      <c r="T89" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X89" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH89" t="n">
         <v>21</v>
       </c>
-      <c r="J89" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K89" t="n">
-        <v>950</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P89" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S89" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V89" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W89" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI89" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK89" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL89" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM89" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12538,127 +12538,127 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.16</v>
+        <v>2.84</v>
       </c>
       <c r="G90" t="n">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="H90" t="n">
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="I90" t="n">
-        <v>3.95</v>
+        <v>2.78</v>
       </c>
       <c r="J90" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N90" t="n">
         <v>3.65</v>
       </c>
-      <c r="L90" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1.29</v>
-      </c>
       <c r="O90" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P90" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.34</v>
+        <v>2.1</v>
       </c>
       <c r="R90" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S90" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V90" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="W90" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="X90" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y90" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z90" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AA90" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB90" t="n">
         <v>11</v>
       </c>
       <c r="AC90" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD90" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE90" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AF90" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AJ90" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AK90" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL90" t="n">
         <v>46</v>
       </c>
       <c r="AM90" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN90" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AO90" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -12673,94 +12673,94 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="G91" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="H91" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="J91" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K91" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L91" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P91" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S91" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T91" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="U91" t="n">
         <v>2.12</v>
       </c>
       <c r="V91" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="W91" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X91" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA91" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AB91" t="n">
         <v>11</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD91" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE91" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AF91" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG91" t="n">
         <v>12.5</v>
@@ -12769,25 +12769,25 @@
         <v>17.5</v>
       </c>
       <c r="AI91" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL91" t="n">
         <v>44</v>
       </c>
-      <c r="AJ91" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>46</v>
-      </c>
       <c r="AM91" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN91" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO91" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
@@ -12928,7 +12928,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12943,127 +12943,127 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="G93" t="n">
-        <v>4.9</v>
+        <v>2.14</v>
       </c>
       <c r="H93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U93" t="n">
         <v>1.81</v>
       </c>
-      <c r="I93" t="n">
+      <c r="V93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W93" t="n">
         <v>1.87</v>
       </c>
-      <c r="J93" t="n">
-        <v>4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N93" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S93" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U93" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V93" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="W93" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X93" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AA93" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AB93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD93" t="n">
         <v>22</v>
       </c>
-      <c r="AC93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>12</v>
-      </c>
       <c r="AE93" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AF93" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AG93" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AH93" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI93" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AJ93" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AK93" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AL93" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM93" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN93" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AO93" t="n">
-        <v>10.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13078,121 +13078,121 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>1.81</v>
       </c>
       <c r="I94" t="n">
-        <v>5.6</v>
+        <v>1.87</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="L94" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N94" t="n">
-        <v>1.77</v>
+        <v>4.4</v>
       </c>
       <c r="O94" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P94" t="n">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="R94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W94" t="n">
         <v>1.25</v>
       </c>
-      <c r="S94" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U94" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V94" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W94" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="95">
@@ -13252,10 +13252,10 @@
         <v>1.26</v>
       </c>
       <c r="P95" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R95" t="n">
         <v>1.43</v>
@@ -13267,7 +13267,7 @@
         <v>2.18</v>
       </c>
       <c r="U95" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="V95" t="n">
         <v>1.06</v>
@@ -13282,7 +13282,7 @@
         <v>36</v>
       </c>
       <c r="Z95" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AA95" t="n">
         <v>800</v>
@@ -13297,7 +13297,7 @@
         <v>60</v>
       </c>
       <c r="AE95" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF95" t="n">
         <v>7.8</v>
@@ -13309,10 +13309,10 @@
         <v>44</v>
       </c>
       <c r="AI95" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AJ95" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK95" t="n">
         <v>15.5</v>
@@ -13324,10 +13324,10 @@
         <v>320</v>
       </c>
       <c r="AN95" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO95" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96">
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="H96" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="I96" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="J96" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K96" t="n">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13381,88 +13381,88 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="O96" t="n">
         <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="R96" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="S96" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T96" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U96" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V96" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="W96" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="X96" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y96" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z96" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA96" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB96" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AD96" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE96" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG96" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI96" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK96" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL96" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM96" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN96" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO96" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G97" t="n">
         <v>2.48</v>
@@ -13501,7 +13501,7 @@
         <v>3.2</v>
       </c>
       <c r="I97" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J97" t="n">
         <v>3.4</v>
@@ -13540,7 +13540,7 @@
         <v>2.16</v>
       </c>
       <c r="V97" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W97" t="n">
         <v>1.67</v>
@@ -13561,7 +13561,7 @@
         <v>11.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD97" t="n">
         <v>15</v>
@@ -13666,13 +13666,13 @@
         <v>1.33</v>
       </c>
       <c r="S98" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T98" t="n">
         <v>2.36</v>
       </c>
       <c r="U98" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V98" t="n">
         <v>1.06</v>
@@ -13720,7 +13720,7 @@
         <v>11.5</v>
       </c>
       <c r="AK98" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL98" t="n">
         <v>70</v>
@@ -14167,19 +14167,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G102" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H102" t="n">
         <v>5.8</v>
       </c>
       <c r="I102" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K102" t="n">
         <v>4.4</v>
@@ -14197,28 +14197,28 @@
         <v>1.26</v>
       </c>
       <c r="P102" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q102" t="n">
         <v>1.76</v>
       </c>
       <c r="R102" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S102" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T102" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U102" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V102" t="n">
         <v>1.2</v>
       </c>
       <c r="W102" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X102" t="n">
         <v>18.5</v>
@@ -14233,7 +14233,7 @@
         <v>170</v>
       </c>
       <c r="AB102" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC102" t="n">
         <v>9.6</v>
@@ -14413,7 +14413,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,127 +14428,127 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T104" t="n">
         <v>1.84</v>
       </c>
-      <c r="G104" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H104" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N104" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P104" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R104" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S104" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T104" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U104" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="V104" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="W104" t="n">
-        <v>2.06</v>
+        <v>1.32</v>
       </c>
       <c r="X104" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y104" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Z104" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AA104" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AB104" t="n">
         <v>9.6</v>
       </c>
       <c r="AC104" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD104" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AE104" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF104" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AG104" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH104" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AI104" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ104" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AK104" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AL104" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM104" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AN104" t="n">
-        <v>13.5</v>
+        <v>140</v>
       </c>
       <c r="AO104" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14563,55 +14563,55 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H105" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="I105" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J105" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="K105" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="L105" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="O105" t="n">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="P105" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.22</v>
+        <v>1.43</v>
       </c>
       <c r="R105" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="S105" t="n">
-        <v>4</v>
+        <v>1.43</v>
       </c>
       <c r="T105" t="n">
         <v>1.01</v>
@@ -14620,10 +14620,10 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W105" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14740,7 +14740,7 @@
         <v>1.81</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R106" t="n">
         <v>1.31</v>
@@ -14818,7 +14818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,127 +14833,127 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="H107" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I107" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L107" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M107" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>1.25</v>
+        <v>3.9</v>
       </c>
       <c r="O107" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="P107" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V107" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q107" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R107" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S107" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T107" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U107" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V107" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W107" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X107" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z107" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA107" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB107" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC107" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD107" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF107" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH107" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI107" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK107" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL107" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM107" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN107" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO107" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14963,132 +14963,132 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3.65</v>
+        <v>1.29</v>
       </c>
       <c r="G108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H108" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N108" t="n">
         <v>4.7</v>
       </c>
-      <c r="H108" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1.25</v>
-      </c>
       <c r="O108" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P108" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.92</v>
+        <v>1.65</v>
       </c>
       <c r="R108" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V108" t="n">
         <v>1.08</v>
       </c>
-      <c r="S108" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T108" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U108" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V108" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W108" t="n">
-        <v>1.27</v>
+        <v>4.1</v>
       </c>
       <c r="X108" t="n">
-        <v>7.6</v>
+        <v>24</v>
       </c>
       <c r="Y108" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="Z108" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="AA108" t="n">
-        <v>40</v>
+        <v>740</v>
       </c>
       <c r="AB108" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC108" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AE108" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AF108" t="n">
-        <v>26</v>
+        <v>7.8</v>
       </c>
       <c r="AG108" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH108" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AI108" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AJ108" t="n">
-        <v>120</v>
+        <v>10.5</v>
       </c>
       <c r="AK108" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AL108" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AM108" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="AN108" t="n">
-        <v>140</v>
+        <v>5.4</v>
       </c>
       <c r="AO108" t="n">
-        <v>46</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15098,132 +15098,132 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="G109" t="n">
-        <v>1.33</v>
+        <v>2.36</v>
       </c>
       <c r="H109" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="I109" t="n">
-        <v>13.5</v>
+        <v>4.4</v>
       </c>
       <c r="J109" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="K109" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="L109" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M109" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N109" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="O109" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="P109" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="R109" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="S109" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="T109" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="U109" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W109" t="n">
         <v>1.73</v>
       </c>
-      <c r="V109" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W109" t="n">
-        <v>4.1</v>
-      </c>
       <c r="X109" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z109" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA109" t="n">
-        <v>740</v>
+        <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC109" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD109" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE109" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF109" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG109" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH109" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AI109" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK109" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL109" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM109" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AN109" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15238,28 +15238,28 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="G110" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="H110" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I110" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J110" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K110" t="n">
         <v>1000</v>
@@ -15271,22 +15271,22 @@
         <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="O110" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P110" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R110" t="n">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="S110" t="n">
-        <v>3.05</v>
+        <v>1.27</v>
       </c>
       <c r="T110" t="n">
         <v>1.01</v>
@@ -15295,13 +15295,13 @@
         <v>1.01</v>
       </c>
       <c r="V110" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W110" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="X110" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y110" t="n">
         <v>1000</v>
@@ -15358,7 +15358,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -15368,132 +15368,132 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:20:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="G111" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H111" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J111" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L111" t="n">
         <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N111" t="n">
-        <v>1.25</v>
+        <v>2.56</v>
       </c>
       <c r="O111" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V111" t="n">
         <v>1.27</v>
       </c>
-      <c r="P111" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R111" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S111" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U111" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V111" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W111" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X111" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y111" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z111" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA111" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB111" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC111" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD111" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE111" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF111" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG111" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI111" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ111" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK111" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL111" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM111" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN111" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO111" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15503,36 +15503,36 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>18:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15541,22 +15541,22 @@
         <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>1.43</v>
+        <v>1.02</v>
       </c>
       <c r="O112" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="P112" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="R112" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="S112" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
@@ -15565,13 +15565,13 @@
         <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W112" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="X112" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y112" t="n">
         <v>1000</v>
@@ -15628,7 +15628,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -15638,132 +15638,132 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N113" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="O113" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="P113" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R113" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="S113" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="T113" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="U113" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V113" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W113" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="X113" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y113" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z113" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA113" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB113" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC113" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE113" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF113" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG113" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ113" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK113" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL113" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM113" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN113" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO113" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15778,121 +15778,121 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.63</v>
+        <v>2.34</v>
       </c>
       <c r="G114" t="n">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="H114" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="I114" t="n">
-        <v>8.6</v>
+        <v>3.75</v>
       </c>
       <c r="J114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S114" t="n">
         <v>3.55</v>
       </c>
-      <c r="K114" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P114" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R114" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S114" t="n">
-        <v>5.5</v>
-      </c>
       <c r="T114" t="n">
-        <v>2.46</v>
+        <v>1.74</v>
       </c>
       <c r="U114" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="V114" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="W114" t="n">
-        <v>2.44</v>
+        <v>1.65</v>
       </c>
       <c r="X114" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="Y114" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AA114" t="n">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="AB114" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD114" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL114" t="n">
         <v>42</v>
       </c>
-      <c r="AE114" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>90</v>
-      </c>
       <c r="AM114" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="AN114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO114" t="n">
-        <v>540</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
@@ -15908,132 +15908,132 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="G115" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="H115" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I115" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="J115" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K115" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L115" t="n">
         <v>1.01</v>
       </c>
       <c r="M115" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N115" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="O115" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P115" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="Q115" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W115" t="n">
         <v>1.98</v>
       </c>
-      <c r="R115" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S115" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T115" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U115" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V115" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W115" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X115" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y115" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF115" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z115" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH115" t="n">
         <v>17.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ115" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL115" t="n">
         <v>36</v>
       </c>
-      <c r="AK115" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>42</v>
-      </c>
       <c r="AM115" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN115" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AO115" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16043,132 +16043,132 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="G116" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="H116" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I116" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J116" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="K116" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L116" t="n">
         <v>1.01</v>
       </c>
       <c r="M116" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N116" t="n">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="O116" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P116" t="n">
-        <v>2.16</v>
+        <v>1.08</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="R116" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="S116" t="n">
-        <v>2.88</v>
+        <v>1.35</v>
       </c>
       <c r="T116" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U116" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V116" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W116" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X116" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y116" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z116" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA116" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB116" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC116" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD116" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE116" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF116" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG116" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH116" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI116" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ116" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK116" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL116" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM116" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN116" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO116" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -16178,123 +16178,123 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="G117" t="n">
-        <v>1000</v>
+        <v>1.58</v>
       </c>
       <c r="H117" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I117" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J117" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="K117" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
       </c>
       <c r="M117" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N117" t="n">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="O117" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P117" t="n">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="R117" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="S117" t="n">
-        <v>1.35</v>
+        <v>3.1</v>
       </c>
       <c r="T117" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U117" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V117" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W117" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="X117" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z117" t="n">
         <v>1000</v>
       </c>
       <c r="AA117" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB117" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC117" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD117" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE117" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF117" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG117" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI117" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK117" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL117" t="n">
         <v>1000</v>
       </c>
       <c r="AM117" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN117" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO117" t="n">
         <v>1000</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="G118" t="n">
         <v>4.6</v>
@@ -16336,7 +16336,7 @@
         <v>1.57</v>
       </c>
       <c r="I118" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J118" t="n">
         <v>3.4</v>
@@ -16375,10 +16375,10 @@
         <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W118" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16573,7 +16573,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -16583,132 +16583,132 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="G120" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="H120" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I120" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J120" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K120" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N120" t="n">
-        <v>3.95</v>
+        <v>2.52</v>
       </c>
       <c r="O120" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="P120" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.84</v>
+        <v>2.66</v>
       </c>
       <c r="R120" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S120" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="T120" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="U120" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="V120" t="n">
         <v>1.13</v>
       </c>
       <c r="W120" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="X120" t="n">
-        <v>19.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y120" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>320</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK120" t="n">
         <v>25</v>
       </c>
-      <c r="Z120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK120" t="n">
+      <c r="AL120" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN120" t="n">
         <v>17.5</v>
       </c>
-      <c r="AL120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM120" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AO120" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -16718,125 +16718,395 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Central Espanol</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6.8</v>
+        <v>1.91</v>
       </c>
       <c r="G121" t="n">
-        <v>50</v>
+        <v>2.08</v>
       </c>
       <c r="H121" t="n">
-        <v>1.35</v>
+        <v>4.8</v>
       </c>
       <c r="I121" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S121" t="n">
+        <v>6</v>
+      </c>
+      <c r="T121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U121" t="n">
         <v>1.61</v>
       </c>
-      <c r="J121" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M121" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O121" t="n">
+      <c r="V121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X121" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H122" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I122" t="n">
+        <v>13</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>340</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CD Victoria</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O123" t="n">
         <v>1.27</v>
       </c>
-      <c r="P121" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S121" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T121" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U121" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V121" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W121" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO121" t="n">
+      <c r="P123" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO123" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO123"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -700,25 +700,25 @@
         <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -730,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
         <v>9.6</v>
@@ -757,7 +757,7 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H4" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>110</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,10 +961,10 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
         <v>2.12</v>
@@ -976,7 +976,7 @@
         <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1357,7 +1357,7 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.31</v>
@@ -1645,7 +1645,7 @@
         <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.49</v>
@@ -1654,7 +1654,7 @@
         <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
@@ -1756,7 +1756,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
         <v>5.7</v>
@@ -1771,22 +1771,22 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1801,10 +1801,10 @@
         <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
         <v>95</v>
@@ -1813,10 +1813,10 @@
         <v>300</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
         <v>32</v>
@@ -1825,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1849,10 +1849,10 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1909,7 +1909,7 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
         <v>2.48</v>
@@ -1918,10 +1918,10 @@
         <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
         <v>1.55</v>
@@ -1936,10 +1936,10 @@
         <v>1.64</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
         <v>27</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>15.5</v>
@@ -1960,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -2041,13 +2041,13 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
         <v>2.16</v>
@@ -2182,7 +2182,7 @@
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
         <v>2.08</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>3.35</v>
@@ -2302,10 +2302,10 @@
         <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
@@ -2317,7 +2317,7 @@
         <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
         <v>2.32</v>
@@ -2338,7 +2338,7 @@
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
         <v>9.800000000000001</v>
@@ -2356,7 +2356,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
         <v>14</v>
@@ -2386,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
         <v>30</v>
@@ -2437,7 +2437,7 @@
         <v>2.52</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.43</v>
@@ -2449,7 +2449,7 @@
         <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
         <v>1.5</v>
@@ -2560,7 +2560,7 @@
         <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
         <v>2.82</v>
@@ -2581,22 +2581,22 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.76</v>
@@ -2608,7 +2608,7 @@
         <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2716,7 +2716,7 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
@@ -2740,7 +2740,7 @@
         <v>1.88</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.48</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
         <v>2.24</v>
@@ -2836,37 +2836,37 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,7 +2875,7 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
         <v>1.81</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G22" t="n">
         <v>3.3</v>
@@ -3382,7 +3382,7 @@
         <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3394,10 +3394,10 @@
         <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q22" t="n">
         <v>2.12</v>
@@ -3409,7 +3409,7 @@
         <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
         <v>2.06</v>
@@ -3517,7 +3517,7 @@
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.31</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H24" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
         <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3667,10 +3667,10 @@
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
         <v>1.5</v>
@@ -3682,19 +3682,19 @@
         <v>1.62</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
         <v>23</v>
@@ -3709,13 +3709,13 @@
         <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -3727,7 +3727,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
         <v>24</v>
@@ -3742,7 +3742,7 @@
         <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I25" t="n">
         <v>2.64</v>
@@ -3799,7 +3799,7 @@
         <v>2.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
         <v>1.62</v>
@@ -3811,13 +3811,13 @@
         <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
         <v>1.6</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G26" t="n">
         <v>1.93</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -3922,7 +3922,7 @@
         <v>3.95</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G27" t="n">
         <v>3.95</v>
@@ -4066,10 +4066,10 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
         <v>1.65</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G29" t="n">
         <v>2.2</v>
@@ -4327,7 +4327,7 @@
         <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4345,13 +4345,13 @@
         <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R29" t="n">
         <v>1.47</v>
       </c>
       <c r="S29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4363,7 +4363,7 @@
         <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H31" t="n">
         <v>2.98</v>
@@ -4633,7 +4633,7 @@
         <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4744,7 +4744,7 @@
         <v>2.04</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
         <v>2.04</v>
@@ -4855,22 +4855,22 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="H33" t="n">
         <v>1.78</v>
       </c>
       <c r="I33" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J33" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -4882,82 +4882,82 @@
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
         <v>2.88</v>
       </c>
       <c r="T33" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
         <v>1.92</v>
       </c>
       <c r="V33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W33" t="n">
         <v>1.22</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G34" t="n">
         <v>5.8</v>
@@ -4996,7 +4996,7 @@
         <v>1.64</v>
       </c>
       <c r="I34" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J34" t="n">
         <v>4.4</v>
@@ -5017,7 +5017,7 @@
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q34" t="n">
         <v>1.62</v>
@@ -5038,7 +5038,7 @@
         <v>2.44</v>
       </c>
       <c r="W34" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X34" t="n">
         <v>27</v>
@@ -5122,73 +5122,73 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H35" t="n">
         <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K35" t="n">
         <v>4.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="R35" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U35" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X35" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="n">
         <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
         <v>11.5</v>
@@ -5224,7 +5224,7 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO35" t="n">
         <v>65</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G37" t="n">
         <v>1.76</v>
@@ -5413,7 +5413,7 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
         <v>4.3</v>
@@ -5425,7 +5425,7 @@
         <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R37" t="n">
         <v>1.48</v>
@@ -5434,7 +5434,7 @@
         <v>2.74</v>
       </c>
       <c r="T37" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U37" t="n">
         <v>2.14</v>
@@ -5473,7 +5473,7 @@
         <v>14</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
         <v>23</v>
@@ -5557,7 +5557,7 @@
         <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q38" t="n">
         <v>2.04</v>
@@ -5569,7 +5569,7 @@
         <v>3.7</v>
       </c>
       <c r="T38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U38" t="n">
         <v>1.89</v>
@@ -5578,7 +5578,7 @@
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="X38" t="n">
         <v>16.5</v>
@@ -5665,16 +5665,16 @@
         <v>1.02</v>
       </c>
       <c r="G39" t="n">
-        <v>1.21</v>
+        <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>5.7</v>
+        <v>1.02</v>
       </c>
       <c r="I39" t="n">
         <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>5.8</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
         <v>1000</v>
@@ -5863,7 +5863,7 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="n">
         <v>14</v>
@@ -5947,7 +5947,7 @@
         <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
         <v>1.42</v>
@@ -6073,7 +6073,7 @@
         <v>6.2</v>
       </c>
       <c r="H42" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I42" t="n">
         <v>1.87</v>
@@ -6097,13 +6097,13 @@
         <v>1.21</v>
       </c>
       <c r="P42" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q42" t="n">
         <v>1.55</v>
       </c>
       <c r="R42" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S42" t="n">
         <v>2.38</v>
@@ -6115,7 +6115,7 @@
         <v>2.14</v>
       </c>
       <c r="V42" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="W42" t="n">
         <v>1.19</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G43" t="n">
         <v>2.54</v>
       </c>
       <c r="H43" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -6250,10 +6250,10 @@
         <v>1.84</v>
       </c>
       <c r="V43" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W43" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X43" t="n">
         <v>8.4</v>
@@ -6292,7 +6292,7 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
         <v>34</v>
@@ -6343,10 +6343,10 @@
         <v>3.55</v>
       </c>
       <c r="H44" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I44" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -6406,7 +6406,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC44" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD44" t="n">
         <v>12.5</v>
@@ -6475,7 +6475,7 @@
         <v>3.4</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H45" t="n">
         <v>2.48</v>
@@ -6571,7 +6571,7 @@
         <v>65</v>
       </c>
       <c r="AM45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN45" t="n">
         <v>55</v>
@@ -6631,13 +6631,13 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O46" t="n">
         <v>1.02</v>
       </c>
       <c r="P46" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q46" t="n">
         <v>1.8</v>
@@ -6745,7 +6745,7 @@
         <v>3.25</v>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H47" t="n">
         <v>2.6</v>
@@ -6793,7 +6793,7 @@
         <v>1.58</v>
       </c>
       <c r="W47" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X47" t="n">
         <v>9.800000000000001</v>
@@ -6844,7 +6844,7 @@
         <v>190</v>
       </c>
       <c r="AN47" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO47" t="n">
         <v>42</v>
@@ -6883,7 +6883,7 @@
         <v>5.1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="I48" t="n">
         <v>2.5</v>
@@ -6892,7 +6892,7 @@
         <v>2.96</v>
       </c>
       <c r="K48" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L48" t="n">
         <v>1.36</v>
@@ -7018,7 +7018,7 @@
         <v>1.99</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
         <v>4.3</v>
@@ -7102,7 +7102,7 @@
         <v>50</v>
       </c>
       <c r="AJ49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK49" t="n">
         <v>19</v>
@@ -7150,16 +7150,16 @@
         <v>1.72</v>
       </c>
       <c r="G50" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H50" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I50" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
         <v>4.2</v>
@@ -7198,7 +7198,7 @@
         <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X50" t="n">
         <v>17</v>
@@ -7207,7 +7207,7 @@
         <v>23</v>
       </c>
       <c r="Z50" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA50" t="n">
         <v>120</v>
@@ -7228,13 +7228,13 @@
         <v>11</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH50" t="n">
         <v>23</v>
       </c>
       <c r="AI50" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ50" t="n">
         <v>18</v>
@@ -7249,7 +7249,7 @@
         <v>140</v>
       </c>
       <c r="AN50" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO50" t="n">
         <v>75</v>
@@ -7285,7 +7285,7 @@
         <v>1.93</v>
       </c>
       <c r="G51" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -7297,7 +7297,7 @@
         <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7312,7 +7312,7 @@
         <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q51" t="n">
         <v>1.72</v>
@@ -7333,7 +7333,7 @@
         <v>1.29</v>
       </c>
       <c r="W51" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X51" t="n">
         <v>970</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G52" t="n">
         <v>2.46</v>
@@ -7426,7 +7426,7 @@
         <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J52" t="n">
         <v>3.25</v>
@@ -7438,7 +7438,7 @@
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
         <v>3.35</v>
@@ -7456,7 +7456,7 @@
         <v>1.31</v>
       </c>
       <c r="S52" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T52" t="n">
         <v>1.66</v>
@@ -7558,7 +7558,7 @@
         <v>1.39</v>
       </c>
       <c r="H53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I53" t="n">
         <v>14</v>
@@ -7567,7 +7567,7 @@
         <v>5.2</v>
       </c>
       <c r="K53" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
         <v>1.28</v>
@@ -7594,10 +7594,10 @@
         <v>2.72</v>
       </c>
       <c r="T53" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U53" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V53" t="n">
         <v>1.08</v>
@@ -7693,7 +7693,7 @@
         <v>2.4</v>
       </c>
       <c r="H54" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
         <v>3.65</v>
@@ -7972,7 +7972,7 @@
         <v>3.05</v>
       </c>
       <c r="K56" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.42</v>
@@ -8095,16 +8095,16 @@
         <v>3.25</v>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>2.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J57" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K57" t="n">
         <v>4.2</v>
@@ -8134,13 +8134,13 @@
         <v>2.94</v>
       </c>
       <c r="T57" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="U57" t="n">
         <v>1.94</v>
       </c>
       <c r="V57" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W57" t="n">
         <v>1.29</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G58" t="n">
         <v>4.9</v>
@@ -8251,7 +8251,7 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O58" t="n">
         <v>1.37</v>
@@ -8260,10 +8260,10 @@
         <v>1.89</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S58" t="n">
         <v>3.9</v>
@@ -8272,7 +8272,7 @@
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V58" t="n">
         <v>2.14</v>
@@ -8281,7 +8281,7 @@
         <v>1.25</v>
       </c>
       <c r="X58" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -8299,16 +8299,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE58" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF58" t="n">
         <v>36</v>
       </c>
       <c r="AG58" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH58" t="n">
         <v>21</v>
@@ -8416,7 +8416,7 @@
         <v>1.69</v>
       </c>
       <c r="X59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y59" t="n">
         <v>13.5</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G60" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H60" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
         <v>3.25</v>
@@ -8512,13 +8512,13 @@
         <v>3.25</v>
       </c>
       <c r="K60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L60" t="n">
         <v>1.43</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N60" t="n">
         <v>3.3</v>
@@ -8527,7 +8527,7 @@
         <v>1.37</v>
       </c>
       <c r="P60" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q60" t="n">
         <v>2.12</v>
@@ -8536,10 +8536,10 @@
         <v>1.29</v>
       </c>
       <c r="S60" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T60" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U60" t="n">
         <v>2.06</v>
@@ -8590,7 +8590,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL60" t="n">
         <v>48</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="G61" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H61" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J61" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="K61" t="n">
-        <v>5.1</v>
+        <v>60</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8674,16 +8674,16 @@
         <v>2.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U61" t="n">
         <v>2.24</v>
       </c>
       <c r="V61" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8800,7 +8800,7 @@
         <v>1.94</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R62" t="n">
         <v>1.37</v>
@@ -8815,7 +8815,7 @@
         <v>2.26</v>
       </c>
       <c r="V62" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W62" t="n">
         <v>1.54</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,127 +8893,127 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="G63" t="n">
-        <v>2.38</v>
+        <v>10.5</v>
       </c>
       <c r="H63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V63" t="n">
         <v>3.55</v>
       </c>
-      <c r="I63" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S63" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U63" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W63" t="n">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="X63" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z63" t="n">
-        <v>27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA63" t="n">
-        <v>70</v>
+        <v>11.5</v>
       </c>
       <c r="AB63" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD63" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC63" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>16</v>
-      </c>
       <c r="AE63" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG63" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AH63" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AI63" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AJ63" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AK63" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="AL63" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AM63" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN63" t="n">
-        <v>19.5</v>
+        <v>250</v>
       </c>
       <c r="AO63" t="n">
-        <v>55</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,121 +9028,121 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="G64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB64" t="n">
         <v>10.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P64" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T64" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V64" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X64" t="n">
+      <c r="AC64" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN64" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y64" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>180</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>250</v>
-      </c>
       <c r="AO64" t="n">
-        <v>6.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -9178,7 +9178,7 @@
         <v>2.68</v>
       </c>
       <c r="H65" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I65" t="n">
         <v>3.45</v>
@@ -9307,19 +9307,19 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G66" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>2.58</v>
       </c>
       <c r="I66" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J66" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="n">
         <v>3.85</v>
@@ -9331,22 +9331,22 @@
         <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R66" t="n">
         <v>1.61</v>
       </c>
       <c r="S66" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T66" t="n">
         <v>1.51</v>
@@ -9355,19 +9355,19 @@
         <v>2.62</v>
       </c>
       <c r="V66" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W66" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X66" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y66" t="n">
         <v>19</v>
       </c>
       <c r="Z66" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA66" t="n">
         <v>36</v>
@@ -9376,10 +9376,10 @@
         <v>20</v>
       </c>
       <c r="AC66" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE66" t="n">
         <v>28</v>
@@ -9391,13 +9391,13 @@
         <v>16.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI66" t="n">
         <v>30</v>
       </c>
       <c r="AJ66" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK66" t="n">
         <v>32</v>
@@ -9409,7 +9409,7 @@
         <v>65</v>
       </c>
       <c r="AN66" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO66" t="n">
         <v>13.5</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G67" t="n">
         <v>2.74</v>
@@ -9451,7 +9451,7 @@
         <v>2.94</v>
       </c>
       <c r="I67" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J67" t="n">
         <v>3.35</v>
@@ -9463,34 +9463,34 @@
         <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.35</v>
       </c>
       <c r="P67" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R67" t="n">
         <v>1.34</v>
       </c>
       <c r="S67" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T67" t="n">
         <v>1.65</v>
       </c>
       <c r="U67" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V67" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W67" t="n">
         <v>1.58</v>
@@ -9505,7 +9505,7 @@
         <v>25</v>
       </c>
       <c r="AA67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB67" t="n">
         <v>12.5</v>
@@ -9517,7 +9517,7 @@
         <v>16</v>
       </c>
       <c r="AE67" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF67" t="n">
         <v>21</v>
@@ -9529,7 +9529,7 @@
         <v>21</v>
       </c>
       <c r="AI67" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ67" t="n">
         <v>46</v>
@@ -9547,7 +9547,7 @@
         <v>30</v>
       </c>
       <c r="AO67" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
@@ -9760,10 +9760,10 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W69" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9877,10 +9877,10 @@
         <v>1.47</v>
       </c>
       <c r="P70" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R70" t="n">
         <v>1.25</v>
@@ -10030,7 +10030,7 @@
         <v>2.02</v>
       </c>
       <c r="V71" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W71" t="n">
         <v>1.46</v>
@@ -10051,7 +10051,7 @@
         <v>10.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD71" t="n">
         <v>12.5</v>
@@ -10126,10 +10126,10 @@
         <v>4.4</v>
       </c>
       <c r="I72" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J72" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K72" t="n">
         <v>3.45</v>
@@ -10138,31 +10138,31 @@
         <v>1.01</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O72" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="P72" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q72" t="n">
         <v>2.24</v>
       </c>
       <c r="R72" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S72" t="n">
         <v>4.1</v>
       </c>
       <c r="T72" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U72" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V72" t="n">
         <v>1.26</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G73" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H73" t="n">
         <v>4.6</v>
       </c>
       <c r="I73" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10294,16 +10294,16 @@
         <v>2.36</v>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="U73" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V73" t="n">
         <v>1.16</v>
       </c>
       <c r="W73" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10312,7 +10312,7 @@
         <v>32</v>
       </c>
       <c r="Z73" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA73" t="n">
         <v>1000</v>
@@ -10336,10 +10336,10 @@
         <v>14.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ73" t="n">
         <v>23</v>
@@ -10348,7 +10348,7 @@
         <v>20</v>
       </c>
       <c r="AL73" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM73" t="n">
         <v>1000</v>
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
         <v>2.04</v>
       </c>
-      <c r="G74" t="n">
-        <v>2.08</v>
-      </c>
       <c r="H74" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I74" t="n">
         <v>4.3</v>
@@ -10402,7 +10402,7 @@
         <v>3.6</v>
       </c>
       <c r="K74" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L74" t="n">
         <v>1.4</v>
@@ -10417,10 +10417,10 @@
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R74" t="n">
         <v>1.32</v>
@@ -10438,13 +10438,13 @@
         <v>1.3</v>
       </c>
       <c r="W74" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X74" t="n">
         <v>14</v>
       </c>
       <c r="Y74" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z74" t="n">
         <v>38</v>
@@ -10489,10 +10489,10 @@
         <v>130</v>
       </c>
       <c r="AN74" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
@@ -10552,7 +10552,7 @@
         <v>1.23</v>
       </c>
       <c r="P75" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="n">
         <v>1.63</v>
@@ -10564,7 +10564,7 @@
         <v>2.84</v>
       </c>
       <c r="T75" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U75" t="n">
         <v>1.98</v>
@@ -10573,7 +10573,7 @@
         <v>1.23</v>
       </c>
       <c r="W75" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G81" t="n">
         <v>3.05</v>
@@ -11341,16 +11341,16 @@
         <v>2.68</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J81" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K81" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L81" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M81" t="n">
         <v>1.01</v>
@@ -11380,7 +11380,7 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W81" t="n">
         <v>1.5</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G83" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H83" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I83" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="J83" t="n">
         <v>3.45</v>
       </c>
       <c r="K83" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L83" t="n">
         <v>1.36</v>
@@ -11632,7 +11632,7 @@
         <v>1.32</v>
       </c>
       <c r="P83" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q83" t="n">
         <v>1.94</v>
@@ -11644,16 +11644,16 @@
         <v>3.2</v>
       </c>
       <c r="T83" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U83" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V83" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W83" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X83" t="n">
         <v>16</v>
@@ -11668,7 +11668,7 @@
         <v>25</v>
       </c>
       <c r="AB83" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC83" t="n">
         <v>9.800000000000001</v>
@@ -11701,7 +11701,7 @@
         <v>80</v>
       </c>
       <c r="AM83" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN83" t="n">
         <v>90</v>
@@ -11743,10 +11743,10 @@
         <v>2.66</v>
       </c>
       <c r="H84" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I84" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J84" t="n">
         <v>3.6</v>
@@ -11941,7 +11941,7 @@
         <v>11.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD85" t="n">
         <v>12</v>
@@ -12010,7 +12010,7 @@
         <v>1.74</v>
       </c>
       <c r="G86" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H86" t="n">
         <v>4.2</v>
@@ -12052,10 +12052,10 @@
         <v>1.57</v>
       </c>
       <c r="U86" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V86" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W86" t="n">
         <v>2.04</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G87" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I87" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J87" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K87" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L87" t="n">
         <v>1.3</v>
@@ -12172,7 +12172,7 @@
         <v>1.2</v>
       </c>
       <c r="P87" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q87" t="n">
         <v>1.67</v>
@@ -12181,16 +12181,16 @@
         <v>1.56</v>
       </c>
       <c r="S87" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T87" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="U87" t="n">
         <v>2.56</v>
       </c>
       <c r="V87" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W87" t="n">
         <v>1.53</v>
@@ -12253,7 +12253,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,127 +12268,127 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>2.46</v>
       </c>
       <c r="G88" t="n">
-        <v>1.51</v>
+        <v>2.66</v>
       </c>
       <c r="H88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N88" t="n">
         <v>3.55</v>
       </c>
-      <c r="I88" t="n">
-        <v>21</v>
-      </c>
-      <c r="J88" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>950</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.83</v>
-      </c>
       <c r="O88" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P88" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="R88" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S88" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="T88" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U88" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V88" t="n">
-        <v>1.05</v>
+        <v>1.42</v>
       </c>
       <c r="W88" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="X88" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA88" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB88" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC88" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD88" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE88" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF88" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG88" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ88" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK88" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL88" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM88" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN88" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO88" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,127 +12403,127 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="G89" t="n">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="H89" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I89" t="n">
-        <v>3.95</v>
+        <v>21</v>
       </c>
       <c r="J89" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="K89" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="O89" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P89" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="R89" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S89" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="T89" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="W89" t="n">
-        <v>1.76</v>
+        <v>2.7</v>
       </c>
       <c r="X89" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y89" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z89" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA89" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC89" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD89" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG89" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH89" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI89" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL89" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM89" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN89" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO89" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12538,127 +12538,127 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.84</v>
+        <v>2.2</v>
       </c>
       <c r="G90" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
-        <v>2.76</v>
+        <v>3.8</v>
       </c>
       <c r="I90" t="n">
-        <v>2.78</v>
+        <v>3.9</v>
       </c>
       <c r="J90" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K90" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N90" t="n">
         <v>3.5</v>
       </c>
-      <c r="L90" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N90" t="n">
-        <v>3.65</v>
-      </c>
       <c r="O90" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P90" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="S90" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="T90" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="U90" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="V90" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="W90" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z90" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AA90" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AB90" t="n">
         <v>11</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD90" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE90" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AF90" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH90" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AJ90" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK90" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL90" t="n">
         <v>46</v>
       </c>
       <c r="AM90" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN90" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AO90" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -12673,94 +12673,94 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="G91" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="I91" t="n">
-        <v>3.4</v>
+        <v>2.76</v>
       </c>
       <c r="J91" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K91" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L91" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O91" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P91" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R91" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S91" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T91" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="U91" t="n">
         <v>2.12</v>
       </c>
       <c r="V91" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="W91" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X91" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y91" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z91" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA91" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AB91" t="n">
         <v>11</v>
       </c>
       <c r="AC91" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD91" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE91" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AF91" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG91" t="n">
         <v>12.5</v>
@@ -12769,31 +12769,31 @@
         <v>17.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ91" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK91" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL91" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM91" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN91" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO91" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -12808,127 +12808,127 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="H92" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="I92" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>3.3</v>
       </c>
       <c r="K92" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L92" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M92" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O92" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P92" t="n">
         <v>1.74</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="R92" t="n">
         <v>1.29</v>
       </c>
       <c r="S92" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T92" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U92" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V92" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="W92" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="X92" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA92" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AB92" t="n">
         <v>10</v>
       </c>
       <c r="AC92" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD92" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE92" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF92" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH92" t="n">
         <v>24</v>
       </c>
       <c r="AI92" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ92" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AK92" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL92" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM92" t="n">
         <v>150</v>
       </c>
       <c r="AN92" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AO92" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12943,121 +12943,121 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="G93" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="H93" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="J93" t="n">
         <v>3.3</v>
       </c>
       <c r="K93" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L93" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P93" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R93" t="n">
         <v>1.29</v>
       </c>
       <c r="S93" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T93" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="U93" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V93" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="W93" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="X93" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y93" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z93" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA93" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AB93" t="n">
         <v>10</v>
       </c>
       <c r="AC93" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD93" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE93" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF93" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH93" t="n">
         <v>24</v>
       </c>
       <c r="AI93" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ93" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL93" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM93" t="n">
         <v>150</v>
       </c>
       <c r="AN93" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AO93" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94">
@@ -13117,10 +13117,10 @@
         <v>1.26</v>
       </c>
       <c r="P94" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R94" t="n">
         <v>1.46</v>
@@ -13171,7 +13171,7 @@
         <v>18.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI94" t="n">
         <v>32</v>
@@ -13225,7 +13225,7 @@
         <v>1.32</v>
       </c>
       <c r="G95" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H95" t="n">
         <v>11.5</v>
@@ -13234,7 +13234,7 @@
         <v>15.5</v>
       </c>
       <c r="J95" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K95" t="n">
         <v>6.6</v>
@@ -13252,10 +13252,10 @@
         <v>1.26</v>
       </c>
       <c r="P95" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R95" t="n">
         <v>1.43</v>
@@ -13267,13 +13267,13 @@
         <v>2.18</v>
       </c>
       <c r="U95" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V95" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W95" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X95" t="n">
         <v>19.5</v>
@@ -13285,7 +13285,7 @@
         <v>130</v>
       </c>
       <c r="AA95" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="AB95" t="n">
         <v>8.199999999999999</v>
@@ -13297,7 +13297,7 @@
         <v>60</v>
       </c>
       <c r="AE95" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF95" t="n">
         <v>7.8</v>
@@ -13306,13 +13306,13 @@
         <v>11</v>
       </c>
       <c r="AH95" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AI95" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ95" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK95" t="n">
         <v>15.5</v>
@@ -13321,7 +13321,7 @@
         <v>55</v>
       </c>
       <c r="AM95" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AN95" t="n">
         <v>6.2</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G96" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H96" t="n">
         <v>1.76</v>
       </c>
       <c r="I96" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J96" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K96" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13381,31 +13381,31 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="O96" t="n">
         <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="R96" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S96" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T96" t="n">
         <v>1.53</v>
       </c>
       <c r="U96" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V96" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W96" t="n">
         <v>1.26</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G97" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H97" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I97" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J97" t="n">
         <v>3.4</v>
       </c>
       <c r="K97" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -13522,34 +13522,34 @@
         <v>1.3</v>
       </c>
       <c r="P97" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R97" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S97" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T97" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="U97" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V97" t="n">
         <v>1.4</v>
       </c>
       <c r="W97" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X97" t="n">
         <v>16</v>
       </c>
       <c r="Y97" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z97" t="n">
         <v>25</v>
@@ -13567,7 +13567,7 @@
         <v>15</v>
       </c>
       <c r="AE97" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF97" t="n">
         <v>16.5</v>
@@ -13579,7 +13579,7 @@
         <v>17.5</v>
       </c>
       <c r="AI97" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ97" t="n">
         <v>34</v>
@@ -13591,13 +13591,13 @@
         <v>40</v>
       </c>
       <c r="AM97" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN97" t="n">
         <v>19.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G98" t="n">
         <v>1.43</v>
@@ -13639,7 +13639,7 @@
         <v>16</v>
       </c>
       <c r="J98" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K98" t="n">
         <v>5.6</v>
@@ -13651,7 +13651,7 @@
         <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O98" t="n">
         <v>1.37</v>
@@ -13672,7 +13672,7 @@
         <v>2.36</v>
       </c>
       <c r="U98" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V98" t="n">
         <v>1.06</v>
@@ -13702,7 +13702,7 @@
         <v>60</v>
       </c>
       <c r="AE98" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AF98" t="n">
         <v>7.2</v>
@@ -13714,7 +13714,7 @@
         <v>42</v>
       </c>
       <c r="AI98" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AJ98" t="n">
         <v>11.5</v>
@@ -13726,7 +13726,7 @@
         <v>70</v>
       </c>
       <c r="AM98" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AN98" t="n">
         <v>8.800000000000001</v>
@@ -14200,7 +14200,7 @@
         <v>2.2</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R102" t="n">
         <v>1.47</v>
@@ -14209,10 +14209,10 @@
         <v>2.92</v>
       </c>
       <c r="T102" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U102" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V102" t="n">
         <v>1.2</v>
@@ -14224,7 +14224,7 @@
         <v>18.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z102" t="n">
         <v>48</v>
@@ -14245,7 +14245,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG102" t="n">
         <v>9.6</v>
@@ -14269,7 +14269,7 @@
         <v>95</v>
       </c>
       <c r="AN102" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO102" t="n">
         <v>75</v>
@@ -14413,7 +14413,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,127 +14428,127 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F104" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I104" t="n">
         <v>3.7</v>
       </c>
-      <c r="G104" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="K104" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="L104" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M104" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="O104" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="P104" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.96</v>
+        <v>2.22</v>
       </c>
       <c r="R104" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S104" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="T104" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="W104" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="X104" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z104" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA104" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB104" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC104" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD104" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE104" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF104" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG104" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH104" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI104" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ104" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL104" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM104" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14563,31 +14563,31 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="G105" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H105" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="J105" t="n">
-        <v>1.02</v>
+        <v>2.86</v>
       </c>
       <c r="K105" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14596,94 +14596,94 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="O105" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="P105" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.43</v>
+        <v>2.92</v>
       </c>
       <c r="R105" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="S105" t="n">
-        <v>1.43</v>
+        <v>5.7</v>
       </c>
       <c r="T105" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="U105" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V105" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="W105" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X105" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z105" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA105" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB105" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC105" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD105" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE105" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF105" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG105" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH105" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI105" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK105" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL105" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM105" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN105" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO105" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,127 +14698,127 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="H106" t="n">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="I106" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="J106" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K106" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L106" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>3.45</v>
+        <v>1.25</v>
       </c>
       <c r="O106" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="P106" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.18</v>
+        <v>1.43</v>
       </c>
       <c r="R106" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="S106" t="n">
-        <v>4.1</v>
+        <v>1.43</v>
       </c>
       <c r="T106" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U106" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="W106" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X106" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y106" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z106" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA106" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC106" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD106" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE106" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF106" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG106" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH106" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI106" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK106" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL106" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM106" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN106" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO106" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,127 +14833,127 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="G107" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="I107" t="n">
-        <v>5.1</v>
+        <v>2.58</v>
       </c>
       <c r="J107" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K107" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L107" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M107" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N107" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="O107" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="P107" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="R107" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="S107" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="T107" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="U107" t="n">
         <v>2.08</v>
       </c>
       <c r="V107" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="W107" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="X107" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y107" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH107" t="n">
         <v>18</v>
       </c>
-      <c r="Z107" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>20</v>
-      </c>
       <c r="AI107" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AJ107" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AK107" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AL107" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM107" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN107" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AO107" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14963,132 +14963,132 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="G108" t="n">
-        <v>1.33</v>
+        <v>1.94</v>
       </c>
       <c r="H108" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="I108" t="n">
-        <v>13.5</v>
+        <v>5.1</v>
       </c>
       <c r="J108" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="K108" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L108" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M108" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N108" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="P108" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="R108" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="S108" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="T108" t="n">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="U108" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="V108" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="W108" t="n">
-        <v>4.1</v>
+        <v>2.06</v>
       </c>
       <c r="X108" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="Z108" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AA108" t="n">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="AB108" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC108" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD108" t="n">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AF108" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AG108" t="n">
         <v>11</v>
       </c>
       <c r="AH108" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL108" t="n">
         <v>36</v>
       </c>
-      <c r="AI108" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>42</v>
-      </c>
       <c r="AM108" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AN108" t="n">
-        <v>5.4</v>
+        <v>13.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15098,132 +15098,132 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H109" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>7</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T109" t="n">
         <v>2.14</v>
       </c>
-      <c r="G109" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I109" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N109" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>2</v>
-      </c>
-      <c r="R109" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S109" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T109" t="n">
-        <v>1.78</v>
-      </c>
       <c r="U109" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V109" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="W109" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="X109" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Y109" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z109" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA109" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="AB109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG109" t="n">
         <v>11</v>
       </c>
-      <c r="AC109" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>13</v>
-      </c>
       <c r="AH109" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI109" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK109" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL109" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM109" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AN109" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO109" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15238,73 +15238,73 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="G110" t="n">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="H110" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I110" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K110" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L110" t="n">
         <v>1.01</v>
       </c>
       <c r="M110" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="O110" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P110" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="R110" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="S110" t="n">
-        <v>1.27</v>
+        <v>3.3</v>
       </c>
       <c r="T110" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U110" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V110" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W110" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="X110" t="n">
         <v>1000</v>
       </c>
       <c r="Y110" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z110" t="n">
         <v>1000</v>
@@ -15313,10 +15313,10 @@
         <v>1000</v>
       </c>
       <c r="AB110" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC110" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD110" t="n">
         <v>1000</v>
@@ -15328,7 +15328,7 @@
         <v>1000</v>
       </c>
       <c r="AG110" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH110" t="n">
         <v>1000</v>
@@ -15346,7 +15346,7 @@
         <v>1000</v>
       </c>
       <c r="AM110" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN110" t="n">
         <v>1000</v>
@@ -15358,7 +15358,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -15368,132 +15368,132 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>18:20:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="G111" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I111" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K111" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L111" t="n">
         <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>2.56</v>
+        <v>1.25</v>
       </c>
       <c r="O111" t="n">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="P111" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.62</v>
+        <v>1.27</v>
       </c>
       <c r="R111" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="S111" t="n">
-        <v>5.3</v>
+        <v>1.27</v>
       </c>
       <c r="T111" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U111" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V111" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W111" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="X111" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y111" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z111" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA111" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB111" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC111" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD111" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE111" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF111" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG111" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH111" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI111" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ111" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK111" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL111" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM111" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN111" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO111" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15503,132 +15503,132 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:20:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N112" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="O112" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="P112" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="R112" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="S112" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="T112" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U112" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V112" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W112" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X112" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y112" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z112" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA112" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB112" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC112" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD112" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE112" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF112" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI112" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ112" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK112" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL112" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM112" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN112" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO112" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -15638,132 +15638,132 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N113" t="n">
-        <v>2.52</v>
+        <v>1.02</v>
       </c>
       <c r="O113" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="P113" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="R113" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="S113" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="T113" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="V113" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W113" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="X113" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y113" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z113" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA113" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC113" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD113" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE113" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF113" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG113" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH113" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI113" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ113" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK113" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL113" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM113" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AN113" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO113" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15778,121 +15778,121 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="G114" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="H114" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="I114" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="J114" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K114" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N114" t="n">
-        <v>3.6</v>
+        <v>2.52</v>
       </c>
       <c r="O114" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="P114" t="n">
-        <v>1.84</v>
+        <v>1.51</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.98</v>
+        <v>2.72</v>
       </c>
       <c r="R114" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="S114" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="T114" t="n">
-        <v>1.74</v>
+        <v>2.46</v>
       </c>
       <c r="U114" t="n">
-        <v>2.1</v>
+        <v>1.56</v>
       </c>
       <c r="V114" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="W114" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="X114" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y114" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG114" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z114" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>12</v>
-      </c>
       <c r="AH114" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AI114" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AJ114" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AK114" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL114" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AM114" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="AN114" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO114" t="n">
-        <v>42</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115">
@@ -15908,132 +15908,132 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="G115" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="H115" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I115" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="J115" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K115" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L115" t="n">
         <v>1.01</v>
       </c>
       <c r="M115" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N115" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="O115" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P115" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="Q115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T115" t="n">
         <v>1.74</v>
       </c>
-      <c r="R115" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S115" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T115" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U115" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V115" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W115" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="X115" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y115" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA115" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB115" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC115" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD115" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF115" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH115" t="n">
         <v>17.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ115" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK115" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL115" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM115" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN115" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AO115" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16043,132 +16043,132 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G116" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H116" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I116" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J116" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="K116" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L116" t="n">
         <v>1.01</v>
       </c>
       <c r="M116" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N116" t="n">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="O116" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P116" t="n">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="R116" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="S116" t="n">
-        <v>1.35</v>
+        <v>2.88</v>
       </c>
       <c r="T116" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U116" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V116" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W116" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X116" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y116" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z116" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA116" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB116" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC116" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE116" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF116" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG116" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH116" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ116" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK116" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL116" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM116" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN116" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO116" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -16178,123 +16178,123 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="G117" t="n">
-        <v>1.58</v>
+        <v>1000</v>
       </c>
       <c r="H117" t="n">
-        <v>6.8</v>
+        <v>1.04</v>
       </c>
       <c r="I117" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J117" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K117" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
       </c>
       <c r="M117" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>3.95</v>
+        <v>1.03</v>
       </c>
       <c r="O117" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P117" t="n">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.84</v>
+        <v>1.35</v>
       </c>
       <c r="R117" t="n">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="S117" t="n">
-        <v>3.1</v>
+        <v>1.35</v>
       </c>
       <c r="T117" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U117" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V117" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W117" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="X117" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y117" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z117" t="n">
         <v>1000</v>
       </c>
       <c r="AA117" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB117" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC117" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD117" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE117" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF117" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG117" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH117" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI117" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ117" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK117" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL117" t="n">
         <v>1000</v>
       </c>
       <c r="AM117" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN117" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO117" t="n">
         <v>1000</v>
@@ -16303,7 +16303,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -16318,118 +16318,118 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="G118" t="n">
-        <v>4.6</v>
+        <v>1.58</v>
       </c>
       <c r="H118" t="n">
-        <v>1.57</v>
+        <v>6.8</v>
       </c>
       <c r="I118" t="n">
-        <v>2.42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J118" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K118" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L118" t="n">
         <v>1.01</v>
       </c>
       <c r="M118" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N118" t="n">
-        <v>1.68</v>
+        <v>3.95</v>
       </c>
       <c r="O118" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P118" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R118" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S118" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T118" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U118" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V118" t="n">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="W118" t="n">
-        <v>1.28</v>
+        <v>2.72</v>
       </c>
       <c r="X118" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z118" t="n">
         <v>1000</v>
       </c>
       <c r="AA118" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB118" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC118" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD118" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE118" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF118" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG118" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI118" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ118" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK118" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL118" t="n">
         <v>1000</v>
       </c>
       <c r="AM118" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN118" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO118" t="n">
         <v>1000</v>
@@ -16438,7 +16438,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -16453,31 +16453,31 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
         <v>1.01</v>
@@ -16486,22 +16486,22 @@
         <v>1.01</v>
       </c>
       <c r="N119" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="O119" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="P119" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.41</v>
+        <v>1.98</v>
       </c>
       <c r="R119" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="S119" t="n">
-        <v>1.41</v>
+        <v>3.3</v>
       </c>
       <c r="T119" t="n">
         <v>1.01</v>
@@ -16510,10 +16510,10 @@
         <v>1.01</v>
       </c>
       <c r="V119" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W119" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X119" t="n">
         <v>1000</v>
@@ -16573,7 +16573,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -16583,126 +16583,126 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N120" t="n">
-        <v>2.52</v>
+        <v>1.25</v>
       </c>
       <c r="O120" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="P120" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.66</v>
+        <v>1.41</v>
       </c>
       <c r="R120" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="S120" t="n">
-        <v>5.7</v>
+        <v>1.41</v>
       </c>
       <c r="T120" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U120" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="V120" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W120" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="X120" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y120" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z120" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA120" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AB120" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC120" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD120" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE120" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF120" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG120" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH120" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI120" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AJ120" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK120" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL120" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM120" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN120" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO120" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="121">
@@ -16723,127 +16723,127 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="G121" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="H121" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="I121" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J121" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K121" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
       </c>
       <c r="M121" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N121" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="O121" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="P121" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="R121" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S121" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T121" t="n">
         <v>2.3</v>
       </c>
       <c r="U121" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="V121" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W121" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="X121" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="Y121" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z121" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AA121" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AB121" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD121" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>320</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK121" t="n">
         <v>25</v>
       </c>
-      <c r="AE121" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>34</v>
-      </c>
       <c r="AL121" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM121" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AN121" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AO121" t="n">
-        <v>250</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -16853,260 +16853,395 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="G122" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="H122" t="n">
-        <v>10.5</v>
+        <v>4.8</v>
       </c>
       <c r="I122" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S122" t="n">
+        <v>6</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X122" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y122" t="n">
         <v>13</v>
       </c>
-      <c r="J122" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L122" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N122" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O122" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P122" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R122" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S122" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T122" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U122" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V122" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W122" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X122" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y122" t="n">
+      <c r="Z122" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ122" t="n">
         <v>27</v>
       </c>
-      <c r="Z122" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>12</v>
-      </c>
       <c r="AK122" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AL122" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM122" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="AN122" t="n">
-        <v>9.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="AO122" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I123" t="n">
+        <v>13</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X123" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>340</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>2026-02-15</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>CD Victoria</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>CD Olimpia</t>
         </is>
       </c>
-      <c r="F123" t="n">
+      <c r="F124" t="n">
         <v>1.04</v>
       </c>
-      <c r="G123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H123" t="n">
+      <c r="G124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.04</v>
       </c>
-      <c r="I123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J123" t="n">
+      <c r="I124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J124" t="n">
         <v>1.02</v>
       </c>
-      <c r="K123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N123" t="n">
+      <c r="K124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N124" t="n">
         <v>1.25</v>
       </c>
-      <c r="O123" t="n">
+      <c r="O124" t="n">
         <v>1.27</v>
       </c>
-      <c r="P123" t="n">
+      <c r="P124" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q124" t="n">
         <v>1.27</v>
       </c>
-      <c r="R123" t="n">
+      <c r="R124" t="n">
         <v>1.08</v>
       </c>
-      <c r="S123" t="n">
+      <c r="S124" t="n">
         <v>1.27</v>
       </c>
-      <c r="T123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO123" t="n">
+      <c r="T124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO124" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,90 +653,90 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.13</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>960</v>
+        <v>14.5</v>
       </c>
       <c r="J2" t="n">
-        <v>8.199999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="P2" t="n">
         <v>1.01</v>
       </c>
       <c r="Q2" t="n">
+        <v>100</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.03</v>
-      </c>
       <c r="S2" t="n">
+        <v>390</v>
+      </c>
+      <c r="T2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.27</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.57</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.41</v>
+        <v>580</v>
       </c>
       <c r="AH2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,16 +760,16 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="O3" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R3" t="n">
         <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T3" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,34 +868,34 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>230</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>1.02</v>
       </c>
       <c r="J4" t="n">
-        <v>2.58</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>2.64</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S4" t="n">
+        <v>34</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.18</v>
       </c>
-      <c r="Q4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S4" t="n">
-        <v>21</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.28</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>50</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>1.31</v>
       </c>
       <c r="AA4" t="n">
-        <v>520</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Central Espanol</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.9</v>
+        <v>1.09</v>
       </c>
       <c r="R5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="T5" t="n">
-        <v>2.86</v>
+        <v>1.43</v>
       </c>
       <c r="U5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>1.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.84</v>
       </c>
       <c r="P6" t="n">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>3.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>9.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>3.15</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>1.41</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,78 +1328,78 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.62</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>19.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>5.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>6.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="Y8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN8" t="n">
         <v>22</v>
       </c>
-      <c r="Z8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>9</v>
-      </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,935 +1598,125 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>1.49</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="J9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.4</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.95</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.66</v>
+        <v>2.68</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Nacional (Par)</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Central Espanol</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Rosario Central</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Barracas Central</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>420</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CD Victoria</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
